--- a/FinViz_Parser/Template.xlsx
+++ b/FinViz_Parser/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aanker\Desktop\Stock_App\FinViz_Parser\Finviz_TLSupport_Oversold40_InvHammer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aanker\Desktop\Stock_App\FinViz_Parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2B922857-0DF7-4B8E-A895-8C81FF48F955}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{80D726D5-A3B7-4211-9D2E-425419D37CE1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8970" tabRatio="851" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8970" tabRatio="851" firstSheet="10" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Stock List" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,15 @@
     <sheet name="Forward PE" sheetId="21" r:id="rId21"/>
     <sheet name="PS" sheetId="22" r:id="rId22"/>
     <sheet name="p_FCF" sheetId="23" r:id="rId23"/>
-    <sheet name="Divident Pct" sheetId="24" r:id="rId24"/>
+    <sheet name="Dividend Pct" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="106" x14ac:knownFonts="1">
+  <fonts count="106">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -988,13 +984,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="104"/>
       <c r="B4" s="104"/>
       <c r="C4" s="105"/>
@@ -1004,7 +1000,7 @@
       <c r="G4" s="104"/>
       <c r="H4" s="104"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="104"/>
       <c r="B5" s="104"/>
       <c r="C5" s="105"/>
@@ -1014,7 +1010,7 @@
       <c r="G5" s="104"/>
       <c r="H5" s="104"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="104"/>
       <c r="B6" s="104"/>
       <c r="C6" s="105"/>
@@ -1024,7 +1020,7 @@
       <c r="G6" s="104"/>
       <c r="H6" s="104"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="104"/>
       <c r="B7" s="104"/>
       <c r="C7" s="106"/>
@@ -1034,7 +1030,7 @@
       <c r="G7" s="104"/>
       <c r="H7" s="104"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="104"/>
       <c r="B8" s="104"/>
       <c r="C8" s="105"/>
@@ -1044,7 +1040,7 @@
       <c r="G8" s="104"/>
       <c r="H8" s="104"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="104"/>
       <c r="B9" s="104"/>
       <c r="C9" s="105"/>
@@ -1054,7 +1050,7 @@
       <c r="G9" s="104"/>
       <c r="H9" s="104"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="104"/>
       <c r="B10" s="104"/>
       <c r="C10" s="106"/>
@@ -1064,7 +1060,7 @@
       <c r="G10" s="104"/>
       <c r="H10" s="104"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="104"/>
       <c r="B11" s="104"/>
       <c r="C11" s="106"/>
@@ -1074,7 +1070,7 @@
       <c r="G11" s="104"/>
       <c r="H11" s="104"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="104"/>
       <c r="B12" s="104"/>
       <c r="C12" s="106"/>
@@ -1084,7 +1080,7 @@
       <c r="G12" s="104"/>
       <c r="H12" s="104"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="104"/>
       <c r="B13" s="104"/>
       <c r="C13" s="105"/>
@@ -1094,7 +1090,7 @@
       <c r="G13" s="104"/>
       <c r="H13" s="104"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="104"/>
       <c r="B14" s="104"/>
       <c r="C14" s="105"/>
@@ -1104,7 +1100,7 @@
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="104"/>
       <c r="B15" s="104"/>
       <c r="C15" s="105"/>
@@ -1114,7 +1110,7 @@
       <c r="G15" s="104"/>
       <c r="H15" s="104"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="104"/>
       <c r="B16" s="104"/>
       <c r="C16" s="106"/>
@@ -1124,7 +1120,7 @@
       <c r="G16" s="104"/>
       <c r="H16" s="104"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="104"/>
       <c r="B17" s="104"/>
       <c r="C17" s="106"/>
@@ -1134,7 +1130,7 @@
       <c r="G17" s="104"/>
       <c r="H17" s="104"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="104"/>
       <c r="B18" s="104"/>
       <c r="C18" s="105"/>
@@ -1144,7 +1140,7 @@
       <c r="G18" s="104"/>
       <c r="H18" s="104"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="104"/>
       <c r="B19" s="104"/>
       <c r="C19" s="105"/>
@@ -1154,7 +1150,7 @@
       <c r="G19" s="104"/>
       <c r="H19" s="104"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="104"/>
       <c r="B20" s="104"/>
       <c r="C20" s="105"/>
@@ -1164,7 +1160,7 @@
       <c r="G20" s="104"/>
       <c r="H20" s="104"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="104"/>
       <c r="B21" s="104"/>
       <c r="C21" s="104"/>
@@ -1174,7 +1170,7 @@
       <c r="G21" s="104"/>
       <c r="H21" s="104"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="104"/>
       <c r="B22" s="104"/>
       <c r="C22" s="104"/>
@@ -1184,7 +1180,7 @@
       <c r="G22" s="104"/>
       <c r="H22" s="104"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="104"/>
       <c r="B23" s="104"/>
       <c r="C23" s="104"/>
@@ -1194,7 +1190,7 @@
       <c r="G23" s="104"/>
       <c r="H23" s="104"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="104"/>
       <c r="B24" s="104"/>
       <c r="C24" s="104"/>
@@ -1204,7 +1200,7 @@
       <c r="G24" s="104"/>
       <c r="H24" s="104"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="104"/>
       <c r="B25" s="104"/>
       <c r="C25" s="104"/>
@@ -1214,7 +1210,7 @@
       <c r="G25" s="104"/>
       <c r="H25" s="104"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="104"/>
       <c r="B26" s="104"/>
       <c r="C26" s="104"/>
@@ -1224,7 +1220,7 @@
       <c r="G26" s="104"/>
       <c r="H26" s="104"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="104"/>
       <c r="B27" s="104"/>
       <c r="C27" s="104"/>
@@ -1234,7 +1230,7 @@
       <c r="G27" s="104"/>
       <c r="H27" s="104"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="104"/>
       <c r="B28" s="104"/>
       <c r="C28" s="104"/>
@@ -1244,7 +1240,7 @@
       <c r="G28" s="104"/>
       <c r="H28" s="104"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="104"/>
       <c r="B29" s="104"/>
       <c r="C29" s="104"/>
@@ -1254,7 +1250,7 @@
       <c r="G29" s="104"/>
       <c r="H29" s="104"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="104"/>
       <c r="B30" s="104"/>
       <c r="C30" s="104"/>
@@ -1264,7 +1260,7 @@
       <c r="G30" s="104"/>
       <c r="H30" s="104"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="104"/>
       <c r="B31" s="104"/>
       <c r="C31" s="104"/>
@@ -1274,7 +1270,7 @@
       <c r="G31" s="104"/>
       <c r="H31" s="104"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="104"/>
       <c r="B32" s="104"/>
       <c r="C32" s="104"/>
@@ -1284,7 +1280,7 @@
       <c r="G32" s="104"/>
       <c r="H32" s="104"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="104"/>
       <c r="B33" s="104"/>
       <c r="C33" s="104"/>
@@ -1294,7 +1290,7 @@
       <c r="G33" s="104"/>
       <c r="H33" s="104"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="104"/>
       <c r="B34" s="104"/>
       <c r="C34" s="104"/>
@@ -1304,7 +1300,7 @@
       <c r="G34" s="104"/>
       <c r="H34" s="104"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="104"/>
       <c r="B35" s="104"/>
       <c r="C35" s="104"/>
@@ -1328,7 +1324,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1342,7 +1338,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1356,7 +1352,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1370,7 +1366,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1384,7 +1380,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1398,7 +1394,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1412,7 +1408,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1426,7 +1422,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1440,7 +1436,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1454,7 +1450,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1468,13 +1464,13 @@
       <selection activeCell="A3" sqref="A1:H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:10">
       <c r="C2" s="94"/>
       <c r="D2" s="86"/>
       <c r="E2" s="80"/>
@@ -1483,128 +1479,128 @@
       <c r="I2" s="88"/>
       <c r="J2" s="79"/>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10">
       <c r="C3" s="94"/>
       <c r="D3" s="86"/>
       <c r="H3" s="105"/>
       <c r="I3" s="88"/>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10">
       <c r="C4" s="94"/>
       <c r="D4" s="86"/>
       <c r="H4" s="105"/>
       <c r="I4" s="89"/>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10">
       <c r="C5" s="94"/>
       <c r="H5" s="105"/>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10">
       <c r="C6" s="94"/>
       <c r="H6" s="105"/>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10">
       <c r="C7" s="103"/>
       <c r="H7" s="105"/>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10">
       <c r="C8" s="94"/>
       <c r="H8" s="105"/>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10">
       <c r="C9" s="94"/>
       <c r="D9" s="87"/>
       <c r="G9" s="82"/>
       <c r="H9" s="106"/>
       <c r="I9" s="88"/>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10">
       <c r="C10" s="100"/>
       <c r="H10" s="106"/>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10">
       <c r="C11" s="102"/>
       <c r="H11" s="106"/>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10">
       <c r="C12" s="94"/>
       <c r="H12" s="105"/>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10">
       <c r="C13" s="100"/>
       <c r="H13" s="105"/>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10">
       <c r="C14" s="94"/>
       <c r="H14" s="105"/>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10">
       <c r="C15" s="94"/>
       <c r="H15" s="105"/>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:10">
       <c r="C16" s="105"/>
       <c r="H16" s="106"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10">
       <c r="C17" s="94"/>
       <c r="H17" s="105"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10">
       <c r="C18" s="94"/>
       <c r="D18" s="86"/>
       <c r="H18" s="106"/>
       <c r="I18" s="88"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10">
       <c r="C19" s="94"/>
       <c r="H19" s="105"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10">
       <c r="C20" s="94"/>
       <c r="H20" s="106"/>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10">
       <c r="C21" s="94"/>
       <c r="H21" s="105"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10">
       <c r="C22" s="94"/>
       <c r="D22" s="87"/>
       <c r="H22" s="105"/>
       <c r="I22" s="89"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10">
       <c r="C23" s="94"/>
       <c r="H23" s="106"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10">
       <c r="C24" s="96"/>
       <c r="H24" s="105"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10">
       <c r="C25" s="97"/>
       <c r="H25" s="106"/>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:10">
       <c r="C26" s="96"/>
       <c r="D26" s="87"/>
       <c r="H26" s="105"/>
       <c r="I26" s="88"/>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10">
       <c r="C27" s="96"/>
       <c r="H27" s="105"/>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10">
       <c r="C28" s="97"/>
       <c r="H28" s="106"/>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10">
       <c r="C29" s="97"/>
       <c r="H29" s="105"/>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:10">
       <c r="C30" s="97"/>
       <c r="D30" s="86"/>
       <c r="E30" s="80"/>
@@ -1613,84 +1609,84 @@
       <c r="I30" s="89"/>
       <c r="J30" s="79"/>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:10">
       <c r="C31" s="97"/>
       <c r="D31" s="87"/>
       <c r="H31" s="105"/>
       <c r="I31" s="88"/>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:10">
       <c r="C32" s="97"/>
       <c r="D32" s="86"/>
       <c r="H32" s="106"/>
       <c r="I32" s="89"/>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10">
       <c r="C33" s="96"/>
       <c r="H33" s="105"/>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10">
       <c r="C34" s="97"/>
       <c r="H34" s="105"/>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10">
       <c r="C35" s="97"/>
       <c r="H35" s="106"/>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:10">
       <c r="C36" s="97"/>
       <c r="D36" s="86"/>
       <c r="G36" s="82"/>
       <c r="H36" s="106"/>
       <c r="I36" s="89"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:10">
       <c r="C37" s="99"/>
       <c r="H37" s="106"/>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:10">
       <c r="C38" s="103"/>
       <c r="H38" s="106"/>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:10">
       <c r="C39" s="97"/>
       <c r="D39" s="86"/>
       <c r="H39" s="105"/>
       <c r="I39" s="89"/>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:10">
       <c r="C40" s="97"/>
       <c r="D40" s="86"/>
       <c r="H40" s="106"/>
       <c r="I40" s="88"/>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:10">
       <c r="C41" s="103"/>
       <c r="H41" s="106"/>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:10">
       <c r="C42" s="96"/>
       <c r="D42" s="87"/>
       <c r="H42" s="105"/>
       <c r="I42" s="88"/>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:10">
       <c r="C43" s="99"/>
       <c r="H43" s="105"/>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:10">
       <c r="C44" s="100"/>
       <c r="H44" s="105"/>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:10">
       <c r="C45" s="102"/>
       <c r="H45" s="105"/>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:10">
       <c r="C46" s="99"/>
       <c r="H46" s="106"/>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:10">
       <c r="C47" s="99"/>
       <c r="D47" s="86"/>
       <c r="E47" s="80"/>
@@ -1699,86 +1695,86 @@
       <c r="I47" s="88"/>
       <c r="J47" s="78"/>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:10">
       <c r="C48" s="103"/>
       <c r="H48" s="106"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:9">
       <c r="C49" s="100"/>
       <c r="H49" s="105"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:9">
       <c r="C50" s="102"/>
       <c r="H50" s="105"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:9">
       <c r="C51" s="100"/>
       <c r="H51" s="106"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:9">
       <c r="C52" s="100"/>
       <c r="H52" s="106"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:9">
       <c r="C53" s="102"/>
       <c r="H53" s="106"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:9">
       <c r="C54" s="100"/>
       <c r="D54" s="87"/>
       <c r="H54" s="106"/>
       <c r="I54" s="89"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:9">
       <c r="C55" s="102"/>
       <c r="H55" s="106"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:9">
       <c r="C56" s="105"/>
       <c r="H56" s="106"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:9">
       <c r="C57" s="100"/>
       <c r="H57" s="105"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:9">
       <c r="C58" s="100"/>
       <c r="H58" s="106"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:9">
       <c r="C59" s="102"/>
       <c r="H59" s="106"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:9">
       <c r="C60" s="100"/>
       <c r="H60" s="105"/>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:9">
       <c r="C61" s="102"/>
       <c r="H61" s="105"/>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:9">
       <c r="C62" s="102"/>
       <c r="D62" s="86"/>
       <c r="G62" s="82"/>
       <c r="H62" s="105"/>
       <c r="I62" s="89"/>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:9">
       <c r="C63" s="102"/>
       <c r="D63" s="87"/>
       <c r="H63" s="106"/>
       <c r="I63" s="89"/>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:9">
       <c r="C64" s="103"/>
       <c r="H64" s="105"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:10">
       <c r="C65" s="105"/>
       <c r="H65" s="106"/>
     </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:10">
       <c r="C66" s="105"/>
       <c r="D66" s="87"/>
       <c r="E66" s="80"/>
@@ -1787,99 +1783,99 @@
       <c r="I66" s="89"/>
       <c r="J66" s="79"/>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:10">
       <c r="C67" s="105"/>
       <c r="H67" s="106"/>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:10">
       <c r="C68" s="106"/>
       <c r="H68" s="106"/>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:10">
       <c r="C69" s="92"/>
       <c r="D69" s="86"/>
       <c r="H69" s="105"/>
       <c r="I69" s="89"/>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:10">
       <c r="C70" s="92"/>
       <c r="H70" s="105"/>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:10">
       <c r="C71" s="93"/>
       <c r="H71" s="105"/>
     </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:10">
       <c r="C72" s="92"/>
       <c r="D72" s="87"/>
       <c r="G72" s="82"/>
       <c r="H72" s="105"/>
       <c r="I72" s="88"/>
     </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:10">
       <c r="C73" s="92"/>
       <c r="H73" s="105"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:10">
       <c r="C74" s="93"/>
       <c r="H74" s="105"/>
     </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:10">
       <c r="C75" s="92"/>
       <c r="D75" s="86"/>
       <c r="H75" s="105"/>
       <c r="I75" s="89"/>
     </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:10">
       <c r="C76" s="92"/>
       <c r="H76" s="105"/>
     </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:10">
       <c r="C77" s="93"/>
       <c r="H77" s="105"/>
     </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:10">
       <c r="C78" s="92"/>
       <c r="D78" s="87"/>
       <c r="H78" s="106"/>
       <c r="I78" s="89"/>
     </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:10">
       <c r="C79" s="92"/>
       <c r="H79" s="106"/>
     </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:10">
       <c r="C80" s="93"/>
       <c r="H80" s="106"/>
     </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:10">
       <c r="C81" s="92"/>
       <c r="D81" s="87"/>
       <c r="H81" s="106"/>
       <c r="I81" s="89"/>
     </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:10">
       <c r="C82" s="92"/>
       <c r="H82" s="106"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:10">
       <c r="C83" s="93"/>
       <c r="H83" s="106"/>
     </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:10">
       <c r="C84" s="92"/>
       <c r="H84" s="106"/>
       <c r="I84" s="89"/>
     </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:10">
       <c r="C85" s="92"/>
       <c r="H85" s="106"/>
     </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:10">
       <c r="C86" s="93"/>
       <c r="H86" s="106"/>
     </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:10">
       <c r="C87" s="105"/>
       <c r="D87" s="86"/>
       <c r="E87" s="80"/>
@@ -1888,68 +1884,68 @@
       <c r="I87" s="89"/>
       <c r="J87" s="79"/>
     </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:10">
       <c r="C88" s="106"/>
       <c r="D88" s="86"/>
       <c r="H88" s="106"/>
       <c r="I88" s="88"/>
     </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:10">
       <c r="C89" s="106"/>
       <c r="D89" s="86"/>
       <c r="H89" s="106"/>
       <c r="I89" s="89"/>
     </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:10">
       <c r="C90" s="106"/>
       <c r="D90" s="87"/>
       <c r="G90" s="82"/>
       <c r="H90" s="106"/>
       <c r="I90" s="89"/>
     </row>
-    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:10">
       <c r="C91" s="105"/>
       <c r="D91" s="87"/>
       <c r="H91" s="106"/>
       <c r="I91" s="88"/>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:10">
       <c r="C92" s="105"/>
       <c r="D92" s="86"/>
       <c r="H92" s="106"/>
       <c r="I92" s="89"/>
     </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:10">
       <c r="C93" s="106"/>
       <c r="D93" s="87"/>
       <c r="H93" s="106"/>
       <c r="I93" s="89"/>
     </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:10">
       <c r="C94" s="106"/>
       <c r="D94" s="87"/>
       <c r="H94" s="106"/>
       <c r="I94" s="89"/>
     </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:10">
       <c r="C95" s="105"/>
       <c r="D95" s="87"/>
       <c r="H95" s="106"/>
       <c r="I95" s="89"/>
     </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:10">
       <c r="C96" s="105"/>
       <c r="D96" s="86"/>
       <c r="H96" s="106"/>
       <c r="I96" s="89"/>
     </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:10">
       <c r="C97" s="105"/>
       <c r="D97" s="86"/>
       <c r="H97" s="106"/>
       <c r="I97" s="89"/>
     </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:10">
       <c r="C98" s="91"/>
       <c r="D98" s="86"/>
       <c r="E98" s="80"/>
@@ -1957,67 +1953,67 @@
       <c r="I98" s="89"/>
       <c r="J98" s="79"/>
     </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:10">
       <c r="C99" s="91"/>
       <c r="D99" s="86"/>
       <c r="I99" s="88"/>
     </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:10">
       <c r="C100" s="91"/>
       <c r="D100" s="86"/>
       <c r="I100" s="89"/>
     </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:10">
       <c r="C101" s="91"/>
       <c r="I101" s="89"/>
     </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:10">
       <c r="C102" s="91"/>
       <c r="D102" s="86"/>
       <c r="I102" s="89"/>
     </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:10">
       <c r="C103" s="91"/>
       <c r="D103" s="86"/>
       <c r="G103" s="82"/>
       <c r="I103" s="89"/>
     </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:10">
       <c r="C104" s="88"/>
       <c r="D104" s="85"/>
       <c r="I104" s="89"/>
     </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:10">
       <c r="C105" s="88"/>
       <c r="D105" s="84"/>
       <c r="I105" s="89"/>
     </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:10">
       <c r="C106" s="88"/>
       <c r="D106" s="84"/>
       <c r="I106" s="89"/>
     </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:10">
       <c r="C107" s="88"/>
       <c r="D107" s="85"/>
       <c r="I107" s="89"/>
     </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:10">
       <c r="C108" s="88"/>
       <c r="D108" s="85"/>
       <c r="I108" s="89"/>
     </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:10">
       <c r="C109" s="88"/>
       <c r="D109" s="84"/>
       <c r="I109" s="89"/>
     </row>
-    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:10">
       <c r="C110" s="88"/>
       <c r="D110" s="84"/>
       <c r="I110" s="89"/>
     </row>
-    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:10">
       <c r="C111" s="88"/>
       <c r="D111" s="85"/>
       <c r="E111" s="80"/>
@@ -2025,38 +2021,38 @@
       <c r="I111" s="89"/>
       <c r="J111" s="79"/>
     </row>
-    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:10">
       <c r="C112" s="88"/>
       <c r="D112" s="85"/>
       <c r="I112" s="89"/>
     </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:10">
       <c r="C113" s="88"/>
       <c r="D113" s="84"/>
       <c r="I113" s="89"/>
     </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:10">
       <c r="C114" s="88"/>
       <c r="D114" s="85"/>
       <c r="G114" s="82"/>
       <c r="I114" s="89"/>
     </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:10">
       <c r="C115" s="88"/>
       <c r="D115" s="85"/>
       <c r="I115" s="89"/>
     </row>
-    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:10">
       <c r="C116" s="88"/>
       <c r="D116" s="84"/>
       <c r="I116" s="89"/>
     </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:10">
       <c r="C117" s="88"/>
       <c r="D117" s="84"/>
       <c r="I117" s="89"/>
     </row>
-    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:10">
       <c r="C118" s="88"/>
       <c r="D118" s="84"/>
       <c r="E118" s="80"/>
@@ -2064,33 +2060,33 @@
       <c r="I118" s="89"/>
       <c r="J118" s="79"/>
     </row>
-    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:10">
       <c r="C119" s="88"/>
       <c r="D119" s="84"/>
       <c r="I119" s="89"/>
     </row>
-    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:10">
       <c r="C120" s="88"/>
       <c r="D120" s="85"/>
       <c r="G120" s="82"/>
       <c r="I120" s="89"/>
     </row>
-    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:10">
       <c r="C121" s="88"/>
       <c r="D121" s="85"/>
       <c r="I121" s="89"/>
     </row>
-    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:10">
       <c r="C122" s="84"/>
       <c r="D122" s="84"/>
       <c r="I122" s="84"/>
     </row>
-    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:10">
       <c r="C123" s="84"/>
       <c r="D123" s="84"/>
       <c r="I123" s="84"/>
     </row>
-    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:10">
       <c r="C124" s="85"/>
       <c r="D124" s="85"/>
       <c r="E124" s="80"/>
@@ -2098,18 +2094,18 @@
       <c r="I124" s="84"/>
       <c r="J124" s="79"/>
     </row>
-    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:10">
       <c r="C125" s="85"/>
       <c r="D125" s="85"/>
       <c r="G125" s="82"/>
       <c r="I125" s="84"/>
     </row>
-    <row r="126" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:10">
       <c r="C126" s="82"/>
       <c r="D126" s="82"/>
       <c r="I126" s="82"/>
     </row>
-    <row r="127" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:10">
       <c r="C127" s="82"/>
       <c r="D127" s="82"/>
       <c r="E127" s="80"/>
@@ -2117,18 +2113,18 @@
       <c r="I127" s="82"/>
       <c r="J127" s="79"/>
     </row>
-    <row r="128" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:10">
       <c r="C128" s="82"/>
       <c r="D128" s="82"/>
       <c r="G128" s="82"/>
       <c r="I128" s="82"/>
     </row>
-    <row r="129" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:10">
       <c r="C129" s="82"/>
       <c r="D129" s="82"/>
       <c r="I129" s="82"/>
     </row>
-    <row r="130" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:10">
       <c r="C130" s="82"/>
       <c r="D130" s="82"/>
       <c r="E130" s="80"/>
@@ -2136,18 +2132,18 @@
       <c r="I130" s="82"/>
       <c r="J130" s="79"/>
     </row>
-    <row r="131" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:10">
       <c r="C131" s="82"/>
       <c r="D131" s="82"/>
       <c r="G131" s="82"/>
       <c r="I131" s="82"/>
     </row>
-    <row r="132" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:10">
       <c r="C132" s="82"/>
       <c r="D132" s="82"/>
       <c r="I132" s="82"/>
     </row>
-    <row r="133" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:10">
       <c r="C133" s="82"/>
       <c r="D133" s="82"/>
       <c r="E133" s="80"/>
@@ -2155,18 +2151,18 @@
       <c r="I133" s="83"/>
       <c r="J133" s="79"/>
     </row>
-    <row r="134" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:10">
       <c r="C134" s="82"/>
       <c r="D134" s="82"/>
       <c r="G134" s="82"/>
       <c r="I134" s="83"/>
     </row>
-    <row r="135" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:10">
       <c r="C135" s="82"/>
       <c r="D135" s="82"/>
       <c r="I135" s="83"/>
     </row>
-    <row r="136" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:10">
       <c r="C136" s="82"/>
       <c r="D136" s="82"/>
       <c r="E136" s="80"/>
@@ -2174,18 +2170,18 @@
       <c r="I136" s="83"/>
       <c r="J136" s="79"/>
     </row>
-    <row r="137" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:10">
       <c r="C137" s="82"/>
       <c r="D137" s="82"/>
       <c r="G137" s="82"/>
       <c r="I137" s="82"/>
     </row>
-    <row r="138" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:10">
       <c r="C138" s="82"/>
       <c r="D138" s="82"/>
       <c r="I138" s="82"/>
     </row>
-    <row r="139" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:10">
       <c r="C139" s="82"/>
       <c r="D139" s="82"/>
       <c r="E139" s="80"/>
@@ -2193,18 +2189,18 @@
       <c r="I139" s="82"/>
       <c r="J139" s="79"/>
     </row>
-    <row r="140" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:10">
       <c r="C140" s="82"/>
       <c r="D140" s="82"/>
       <c r="G140" s="82"/>
       <c r="I140" s="82"/>
     </row>
-    <row r="141" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:10">
       <c r="C141" s="82"/>
       <c r="D141" s="82"/>
       <c r="I141" s="82"/>
     </row>
-    <row r="142" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:10">
       <c r="C142" s="82"/>
       <c r="D142" s="82"/>
       <c r="E142" s="80"/>
@@ -2212,18 +2208,18 @@
       <c r="I142" s="82"/>
       <c r="J142" s="79"/>
     </row>
-    <row r="143" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:10">
       <c r="C143" s="82"/>
       <c r="D143" s="82"/>
       <c r="G143" s="82"/>
       <c r="I143" s="82"/>
     </row>
-    <row r="144" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:10">
       <c r="C144" s="82"/>
       <c r="D144" s="82"/>
       <c r="I144" s="82"/>
     </row>
-    <row r="145" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:10">
       <c r="C145" s="82"/>
       <c r="D145" s="82"/>
       <c r="E145" s="80"/>
@@ -2231,18 +2227,18 @@
       <c r="I145" s="82"/>
       <c r="J145" s="79"/>
     </row>
-    <row r="146" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:10">
       <c r="C146" s="82"/>
       <c r="D146" s="82"/>
       <c r="G146" s="82"/>
       <c r="I146" s="82"/>
     </row>
-    <row r="147" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:10">
       <c r="C147" s="82"/>
       <c r="D147" s="82"/>
       <c r="I147" s="82"/>
     </row>
-    <row r="148" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:10">
       <c r="C148" s="82"/>
       <c r="D148" s="82"/>
       <c r="E148" s="80"/>
@@ -2250,18 +2246,18 @@
       <c r="I148" s="82"/>
       <c r="J148" s="79"/>
     </row>
-    <row r="149" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:10">
       <c r="C149" s="82"/>
       <c r="D149" s="82"/>
       <c r="G149" s="82"/>
       <c r="I149" s="82"/>
     </row>
-    <row r="150" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:10">
       <c r="C150" s="82"/>
       <c r="D150" s="82"/>
       <c r="I150" s="82"/>
     </row>
-    <row r="151" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:10">
       <c r="C151" s="82"/>
       <c r="D151" s="82"/>
       <c r="E151" s="81"/>
@@ -2269,18 +2265,18 @@
       <c r="I151" s="82"/>
       <c r="J151" s="79"/>
     </row>
-    <row r="152" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:10">
       <c r="C152" s="82"/>
       <c r="D152" s="82"/>
       <c r="G152" s="83"/>
       <c r="I152" s="82"/>
     </row>
-    <row r="153" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:10">
       <c r="C153" s="82"/>
       <c r="D153" s="82"/>
       <c r="I153" s="82"/>
     </row>
-    <row r="154" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:10">
       <c r="C154" s="82"/>
       <c r="D154" s="82"/>
       <c r="E154" s="80"/>
@@ -2288,18 +2284,18 @@
       <c r="I154" s="82"/>
       <c r="J154" s="79"/>
     </row>
-    <row r="155" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:10">
       <c r="C155" s="82"/>
       <c r="D155" s="82"/>
       <c r="G155" s="82"/>
       <c r="I155" s="83"/>
     </row>
-    <row r="156" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:10">
       <c r="C156" s="82"/>
       <c r="D156" s="82"/>
       <c r="I156" s="82"/>
     </row>
-    <row r="157" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:10">
       <c r="C157" s="82"/>
       <c r="D157" s="82"/>
       <c r="E157" s="80"/>
@@ -2307,3729 +2303,3729 @@
       <c r="I157" s="82"/>
       <c r="J157" s="79"/>
     </row>
-    <row r="158" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:10">
       <c r="C158" s="82"/>
       <c r="D158" s="82"/>
       <c r="G158" s="82"/>
       <c r="I158" s="82"/>
     </row>
-    <row r="159" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:10">
       <c r="C159" s="82"/>
       <c r="D159" s="82"/>
       <c r="I159" s="83"/>
     </row>
-    <row r="160" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:10">
       <c r="C160" s="79"/>
       <c r="D160" s="79"/>
       <c r="G160" s="78"/>
       <c r="J160" s="79"/>
     </row>
-    <row r="161" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:10">
       <c r="C161" s="78"/>
       <c r="D161" s="78"/>
       <c r="G161" s="78"/>
       <c r="J161" s="79"/>
     </row>
-    <row r="162" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:10">
       <c r="C162" s="79"/>
       <c r="D162" s="79"/>
       <c r="G162" s="79"/>
       <c r="J162" s="79"/>
     </row>
-    <row r="163" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:10">
       <c r="C163" s="78"/>
       <c r="D163" s="78"/>
       <c r="G163" s="78"/>
       <c r="J163" s="79"/>
     </row>
-    <row r="164" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:10">
       <c r="C164" s="78"/>
       <c r="D164" s="78"/>
       <c r="G164" s="78"/>
       <c r="J164" s="79"/>
     </row>
-    <row r="165" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:10">
       <c r="C165" s="79"/>
       <c r="D165" s="79"/>
       <c r="G165" s="78"/>
       <c r="J165" s="79"/>
     </row>
-    <row r="166" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:10">
       <c r="C166" s="76"/>
       <c r="D166" s="76"/>
       <c r="G166" s="77"/>
       <c r="J166" s="77"/>
     </row>
-    <row r="167" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:10">
       <c r="C167" s="77"/>
       <c r="D167" s="77"/>
       <c r="G167" s="76"/>
       <c r="J167" s="76"/>
     </row>
-    <row r="168" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:10">
       <c r="C168" s="76"/>
       <c r="D168" s="76"/>
       <c r="G168" s="77"/>
       <c r="J168" s="76"/>
     </row>
-    <row r="169" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:10">
       <c r="C169" s="77"/>
       <c r="D169" s="77"/>
       <c r="G169" s="77"/>
       <c r="J169" s="76"/>
     </row>
-    <row r="170" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:10">
       <c r="C170" s="77"/>
       <c r="D170" s="77"/>
       <c r="G170" s="77"/>
       <c r="J170" s="76"/>
     </row>
-    <row r="171" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:10">
       <c r="C171" s="76"/>
       <c r="D171" s="76"/>
       <c r="G171" s="77"/>
       <c r="J171" s="77"/>
     </row>
-    <row r="172" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:10">
       <c r="C172" s="76"/>
       <c r="D172" s="76"/>
       <c r="G172" s="77"/>
       <c r="J172" s="77"/>
     </row>
-    <row r="173" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:10">
       <c r="C173" s="77"/>
       <c r="D173" s="77"/>
       <c r="G173" s="77"/>
       <c r="J173" s="76"/>
     </row>
-    <row r="174" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:10">
       <c r="C174" s="76"/>
       <c r="D174" s="76"/>
       <c r="G174" s="77"/>
       <c r="J174" s="77"/>
     </row>
-    <row r="175" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:10">
       <c r="C175" s="76"/>
       <c r="D175" s="76"/>
       <c r="G175" s="77"/>
       <c r="J175" s="77"/>
     </row>
-    <row r="176" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:10">
       <c r="C176" s="76"/>
       <c r="D176" s="76"/>
       <c r="G176" s="77"/>
       <c r="J176" s="77"/>
     </row>
-    <row r="177" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:10">
       <c r="C177" s="77"/>
       <c r="D177" s="77"/>
       <c r="G177" s="76"/>
       <c r="J177" s="76"/>
     </row>
-    <row r="178" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:10">
       <c r="C178" s="77"/>
       <c r="D178" s="77"/>
       <c r="G178" s="77"/>
       <c r="J178" s="77"/>
     </row>
-    <row r="179" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:10">
       <c r="C179" s="77"/>
       <c r="D179" s="77"/>
       <c r="G179" s="77"/>
       <c r="J179" s="77"/>
     </row>
-    <row r="180" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:10">
       <c r="C180" s="76"/>
       <c r="D180" s="76"/>
       <c r="G180" s="77"/>
       <c r="J180" s="77"/>
     </row>
-    <row r="181" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:10">
       <c r="C181" s="77"/>
       <c r="D181" s="77"/>
       <c r="G181" s="77"/>
       <c r="J181" s="76"/>
     </row>
-    <row r="182" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:10">
       <c r="C182" s="76"/>
       <c r="D182" s="76"/>
       <c r="G182" s="77"/>
       <c r="J182" s="76"/>
     </row>
-    <row r="183" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:10">
       <c r="C183" s="76"/>
       <c r="D183" s="76"/>
       <c r="G183" s="77"/>
       <c r="J183" s="76"/>
     </row>
-    <row r="184" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:10">
       <c r="C184" s="76"/>
       <c r="D184" s="76"/>
       <c r="G184" s="77"/>
       <c r="J184" s="77"/>
     </row>
-    <row r="185" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:10">
       <c r="C185" s="77"/>
       <c r="D185" s="77"/>
       <c r="G185" s="77"/>
       <c r="J185" s="76"/>
     </row>
-    <row r="186" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:10">
       <c r="C186" s="77"/>
       <c r="D186" s="77"/>
       <c r="G186" s="77"/>
       <c r="J186" s="76"/>
     </row>
-    <row r="187" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:10">
       <c r="C187" s="76"/>
       <c r="D187" s="76"/>
       <c r="G187" s="77"/>
       <c r="J187" s="77"/>
     </row>
-    <row r="188" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:10">
       <c r="C188" s="77"/>
       <c r="D188" s="77"/>
       <c r="G188" s="77"/>
       <c r="J188" s="77"/>
     </row>
-    <row r="189" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:10">
       <c r="C189" s="77"/>
       <c r="D189" s="77"/>
       <c r="G189" s="77"/>
       <c r="J189" s="77"/>
     </row>
-    <row r="190" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:10">
       <c r="C190" s="77"/>
       <c r="D190" s="77"/>
       <c r="G190" s="77"/>
       <c r="J190" s="77"/>
     </row>
-    <row r="191" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:10">
       <c r="C191" s="76"/>
       <c r="D191" s="76"/>
       <c r="G191" s="77"/>
       <c r="J191" s="77"/>
     </row>
-    <row r="192" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:10">
       <c r="C192" s="76"/>
       <c r="D192" s="76"/>
       <c r="G192" s="77"/>
       <c r="J192" s="77"/>
     </row>
-    <row r="193" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:10">
       <c r="C193" s="77"/>
       <c r="D193" s="77"/>
       <c r="G193" s="76"/>
       <c r="J193" s="76"/>
     </row>
-    <row r="194" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:10">
       <c r="C194" s="76"/>
       <c r="D194" s="76"/>
       <c r="G194" s="77"/>
       <c r="J194" s="76"/>
     </row>
-    <row r="195" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:10">
       <c r="C195" s="76"/>
       <c r="D195" s="76"/>
       <c r="G195" s="77"/>
       <c r="J195" s="77"/>
     </row>
-    <row r="196" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:10">
       <c r="C196" s="77"/>
       <c r="D196" s="77"/>
       <c r="G196" s="77"/>
       <c r="J196" s="77"/>
     </row>
-    <row r="197" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:10">
       <c r="C197" s="77"/>
       <c r="D197" s="77"/>
       <c r="G197" s="77"/>
       <c r="J197" s="76"/>
     </row>
-    <row r="198" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:10">
       <c r="C198" s="76"/>
       <c r="D198" s="76"/>
       <c r="G198" s="77"/>
       <c r="J198" s="76"/>
     </row>
-    <row r="199" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:10">
       <c r="C199" s="76"/>
       <c r="D199" s="76"/>
       <c r="G199" s="77"/>
       <c r="J199" s="76"/>
     </row>
-    <row r="200" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:10">
       <c r="C200" s="76"/>
       <c r="D200" s="76"/>
       <c r="G200" s="77"/>
       <c r="J200" s="76"/>
     </row>
-    <row r="201" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:10">
       <c r="C201" s="77"/>
       <c r="D201" s="77"/>
       <c r="G201" s="77"/>
       <c r="J201" s="76"/>
     </row>
-    <row r="202" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:10">
       <c r="C202" s="76"/>
       <c r="D202" s="76"/>
       <c r="G202" s="77"/>
       <c r="J202" s="76"/>
     </row>
-    <row r="203" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:10">
       <c r="C203" s="77"/>
       <c r="D203" s="77"/>
       <c r="G203" s="77"/>
       <c r="J203" s="76"/>
     </row>
-    <row r="204" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:10">
       <c r="C204" s="77"/>
       <c r="D204" s="77"/>
       <c r="G204" s="76"/>
       <c r="J204" s="77"/>
     </row>
-    <row r="205" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:10">
       <c r="C205" s="76"/>
       <c r="D205" s="76"/>
       <c r="G205" s="77"/>
       <c r="J205" s="76"/>
     </row>
-    <row r="206" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:10">
       <c r="C206" s="76"/>
       <c r="D206" s="76"/>
       <c r="G206" s="77"/>
       <c r="J206" s="76"/>
     </row>
-    <row r="207" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:10">
       <c r="C207" s="76"/>
       <c r="D207" s="76"/>
       <c r="G207" s="77"/>
       <c r="J207" s="76"/>
     </row>
-    <row r="208" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:10">
       <c r="C208" s="76"/>
       <c r="D208" s="76"/>
       <c r="G208" s="77"/>
       <c r="J208" s="76"/>
     </row>
-    <row r="209" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:10">
       <c r="C209" s="76"/>
       <c r="D209" s="76"/>
       <c r="G209" s="77"/>
       <c r="J209" s="77"/>
     </row>
-    <row r="210" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:10">
       <c r="C210" s="77"/>
       <c r="D210" s="77"/>
       <c r="G210" s="77"/>
       <c r="J210" s="77"/>
     </row>
-    <row r="211" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:10">
       <c r="C211" s="77"/>
       <c r="D211" s="77"/>
       <c r="G211" s="77"/>
       <c r="J211" s="77"/>
     </row>
-    <row r="212" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:10">
       <c r="C212" s="77"/>
       <c r="D212" s="77"/>
       <c r="G212" s="77"/>
       <c r="J212" s="76"/>
     </row>
-    <row r="213" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:10">
       <c r="C213" s="76"/>
       <c r="D213" s="76"/>
       <c r="G213" s="77"/>
       <c r="J213" s="77"/>
     </row>
-    <row r="214" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:10">
       <c r="C214" s="77"/>
       <c r="D214" s="77"/>
       <c r="G214" s="77"/>
       <c r="J214" s="77"/>
     </row>
-    <row r="215" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:10">
       <c r="C215" s="77"/>
       <c r="D215" s="77"/>
       <c r="G215" s="77"/>
       <c r="J215" s="76"/>
     </row>
-    <row r="216" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:10">
       <c r="C216" s="76"/>
       <c r="D216" s="76"/>
       <c r="G216" s="76"/>
       <c r="J216" s="76"/>
     </row>
-    <row r="217" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:10">
       <c r="C217" s="76"/>
       <c r="D217" s="76"/>
       <c r="G217" s="77"/>
       <c r="J217" s="76"/>
     </row>
-    <row r="218" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:10">
       <c r="C218" s="76"/>
       <c r="D218" s="76"/>
       <c r="G218" s="77"/>
       <c r="J218" s="76"/>
     </row>
-    <row r="219" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:10">
       <c r="C219" s="77"/>
       <c r="D219" s="77"/>
       <c r="G219" s="77"/>
       <c r="J219" s="77"/>
     </row>
-    <row r="220" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:10">
       <c r="C220" s="77"/>
       <c r="D220" s="77"/>
       <c r="G220" s="77"/>
       <c r="J220" s="76"/>
     </row>
-    <row r="221" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:10">
       <c r="C221" s="77"/>
       <c r="D221" s="77"/>
       <c r="G221" s="77"/>
       <c r="J221" s="76"/>
     </row>
-    <row r="222" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:10">
       <c r="C222" s="76"/>
       <c r="D222" s="76"/>
       <c r="G222" s="77"/>
       <c r="J222" s="76"/>
     </row>
-    <row r="223" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:10">
       <c r="C223" s="77"/>
       <c r="D223" s="77"/>
       <c r="G223" s="76"/>
       <c r="J223" s="76"/>
     </row>
-    <row r="224" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:10">
       <c r="C224" s="76"/>
       <c r="D224" s="76"/>
       <c r="G224" s="77"/>
       <c r="J224" s="76"/>
     </row>
-    <row r="225" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:10">
       <c r="C225" s="76"/>
       <c r="D225" s="76"/>
       <c r="G225" s="77"/>
       <c r="J225" s="76"/>
     </row>
-    <row r="226" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:10">
       <c r="C226" s="77"/>
       <c r="D226" s="77"/>
       <c r="G226" s="76"/>
       <c r="J226" s="77"/>
     </row>
-    <row r="227" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:10">
       <c r="C227" s="76"/>
       <c r="D227" s="76"/>
       <c r="G227" s="77"/>
       <c r="J227" s="77"/>
     </row>
-    <row r="228" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:10">
       <c r="C228" s="77"/>
       <c r="D228" s="77"/>
       <c r="G228" s="77"/>
       <c r="J228" s="76"/>
     </row>
-    <row r="229" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:10">
       <c r="C229" s="77"/>
       <c r="D229" s="77"/>
       <c r="G229" s="76"/>
       <c r="J229" s="77"/>
     </row>
-    <row r="230" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:10">
       <c r="C230" s="76"/>
       <c r="D230" s="76"/>
       <c r="G230" s="77"/>
       <c r="J230" s="77"/>
     </row>
-    <row r="231" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:10">
       <c r="C231" s="77"/>
       <c r="D231" s="77"/>
       <c r="G231" s="77"/>
       <c r="J231" s="76"/>
     </row>
-    <row r="232" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:10">
       <c r="C232" s="76"/>
       <c r="D232" s="76"/>
       <c r="G232" s="77"/>
       <c r="J232" s="77"/>
     </row>
-    <row r="233" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:10">
       <c r="C233" s="77"/>
       <c r="D233" s="77"/>
       <c r="G233" s="77"/>
       <c r="J233" s="76"/>
     </row>
-    <row r="234" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:10">
       <c r="C234" s="77"/>
       <c r="D234" s="77"/>
       <c r="G234" s="76"/>
       <c r="J234" s="77"/>
     </row>
-    <row r="235" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:10">
       <c r="C235" s="77"/>
       <c r="D235" s="77"/>
       <c r="G235" s="77"/>
       <c r="J235" s="77"/>
     </row>
-    <row r="236" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:10">
       <c r="C236" s="77"/>
       <c r="D236" s="77"/>
       <c r="G236" s="77"/>
       <c r="J236" s="76"/>
     </row>
-    <row r="237" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:10">
       <c r="C237" s="77"/>
       <c r="D237" s="77"/>
       <c r="G237" s="76"/>
       <c r="J237" s="77"/>
     </row>
-    <row r="238" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:10">
       <c r="C238" s="77"/>
       <c r="D238" s="77"/>
       <c r="G238" s="76"/>
       <c r="J238" s="77"/>
     </row>
-    <row r="239" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:10">
       <c r="C239" s="77"/>
       <c r="D239" s="77"/>
       <c r="G239" s="77"/>
       <c r="J239" s="77"/>
     </row>
-    <row r="240" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:10">
       <c r="C240" s="77"/>
       <c r="D240" s="77"/>
       <c r="G240" s="77"/>
       <c r="J240" s="76"/>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:7">
       <c r="C241" s="75"/>
       <c r="D241" s="75"/>
       <c r="G241" s="75"/>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:7">
       <c r="C242" s="73"/>
       <c r="D242" s="73"/>
       <c r="G242" s="73"/>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:7">
       <c r="C243" s="73"/>
       <c r="D243" s="73"/>
       <c r="G243" s="73"/>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:7">
       <c r="C244" s="75"/>
       <c r="D244" s="75"/>
       <c r="G244" s="75"/>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:7">
       <c r="C245" s="72"/>
       <c r="D245" s="72"/>
       <c r="G245" s="73"/>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:7">
       <c r="C246" s="72"/>
       <c r="D246" s="72"/>
       <c r="G246" s="73"/>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:7">
       <c r="C247" s="74"/>
       <c r="D247" s="74"/>
       <c r="G247" s="75"/>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:7">
       <c r="C248" s="72"/>
       <c r="D248" s="72"/>
       <c r="G248" s="73"/>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:7">
       <c r="C249" s="72"/>
       <c r="D249" s="72"/>
       <c r="G249" s="73"/>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:7">
       <c r="C250" s="74"/>
       <c r="D250" s="74"/>
       <c r="G250" s="75"/>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:7">
       <c r="C251" s="72"/>
       <c r="D251" s="72"/>
       <c r="G251" s="73"/>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:7">
       <c r="C252" s="72"/>
       <c r="D252" s="72"/>
       <c r="G252" s="73"/>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:7">
       <c r="C253" s="74"/>
       <c r="D253" s="74"/>
       <c r="G253" s="75"/>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:7">
       <c r="C254" s="72"/>
       <c r="D254" s="72"/>
       <c r="G254" s="73"/>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:7">
       <c r="C255" s="72"/>
       <c r="D255" s="72"/>
       <c r="G255" s="73"/>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:7">
       <c r="C256" s="74"/>
       <c r="D256" s="74"/>
       <c r="G256" s="75"/>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:7">
       <c r="C257" s="72"/>
       <c r="D257" s="72"/>
       <c r="G257" s="73"/>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:7">
       <c r="C258" s="72"/>
       <c r="D258" s="72"/>
       <c r="G258" s="73"/>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:7">
       <c r="C259" s="74"/>
       <c r="D259" s="74"/>
       <c r="G259" s="75"/>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:7">
       <c r="C260" s="73"/>
       <c r="D260" s="73"/>
       <c r="G260" s="73"/>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:7">
       <c r="C261" s="73"/>
       <c r="D261" s="73"/>
       <c r="G261" s="73"/>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:7">
       <c r="C262" s="75"/>
       <c r="D262" s="75"/>
       <c r="G262" s="75"/>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:7">
       <c r="C263" s="72"/>
       <c r="D263" s="72"/>
       <c r="G263" s="73"/>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:7">
       <c r="C264" s="72"/>
       <c r="D264" s="72"/>
       <c r="G264" s="73"/>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:7">
       <c r="C265" s="74"/>
       <c r="D265" s="74"/>
       <c r="G265" s="75"/>
     </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:7">
       <c r="C266" s="72"/>
       <c r="D266" s="72"/>
       <c r="G266" s="73"/>
     </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:7">
       <c r="C267" s="72"/>
       <c r="D267" s="72"/>
       <c r="G267" s="73"/>
     </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:7">
       <c r="C268" s="74"/>
       <c r="D268" s="74"/>
       <c r="G268" s="75"/>
     </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:7">
       <c r="C269" s="73"/>
       <c r="D269" s="73"/>
       <c r="G269" s="73"/>
     </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:7">
       <c r="C270" s="73"/>
       <c r="D270" s="73"/>
       <c r="G270" s="73"/>
     </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:7">
       <c r="C271" s="75"/>
       <c r="D271" s="75"/>
       <c r="G271" s="75"/>
     </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:7">
       <c r="C272" s="72"/>
       <c r="D272" s="72"/>
       <c r="G272" s="73"/>
     </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:7">
       <c r="C273" s="72"/>
       <c r="D273" s="72"/>
       <c r="G273" s="73"/>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:7">
       <c r="C274" s="74"/>
       <c r="D274" s="74"/>
       <c r="G274" s="75"/>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:7">
       <c r="C275" s="72"/>
       <c r="D275" s="72"/>
       <c r="G275" s="73"/>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:7">
       <c r="C276" s="72"/>
       <c r="D276" s="72"/>
       <c r="G276" s="73"/>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:7">
       <c r="C277" s="74"/>
       <c r="D277" s="74"/>
       <c r="G277" s="75"/>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:7">
       <c r="C278" s="48"/>
       <c r="D278" s="48"/>
       <c r="G278" s="48"/>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:7">
       <c r="C279" s="56"/>
       <c r="D279" s="56"/>
       <c r="G279" s="56"/>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:7">
       <c r="C280" s="58"/>
       <c r="D280" s="58"/>
       <c r="G280" s="58"/>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:7">
       <c r="C281" s="60"/>
       <c r="D281" s="60"/>
       <c r="G281" s="60"/>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:7">
       <c r="C282" s="62"/>
       <c r="D282" s="62"/>
       <c r="G282" s="62"/>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:7">
       <c r="C283" s="62"/>
       <c r="D283" s="62"/>
       <c r="G283" s="62"/>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:7">
       <c r="C284" s="64"/>
       <c r="D284" s="64"/>
       <c r="G284" s="64"/>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:7">
       <c r="C285" s="66"/>
       <c r="D285" s="66"/>
       <c r="G285" s="66"/>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:7">
       <c r="C286" s="68"/>
       <c r="D286" s="68"/>
       <c r="G286" s="68"/>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:7">
       <c r="C287" s="70"/>
       <c r="D287" s="70"/>
       <c r="G287" s="70"/>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:7">
       <c r="C288" s="43"/>
       <c r="D288" s="43"/>
       <c r="G288" s="42"/>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:7">
       <c r="C289" s="44"/>
       <c r="D289" s="44"/>
       <c r="G289" s="45"/>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:7">
       <c r="C290" s="49"/>
       <c r="D290" s="49"/>
       <c r="G290" s="48"/>
     </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:7">
       <c r="C291" s="49"/>
       <c r="D291" s="49"/>
       <c r="G291" s="48"/>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:7">
       <c r="C292" s="50"/>
       <c r="D292" s="50"/>
       <c r="G292" s="51"/>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:7">
       <c r="C293" s="52"/>
       <c r="D293" s="52"/>
       <c r="G293" s="53"/>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:7">
       <c r="C294" s="54"/>
       <c r="D294" s="54"/>
       <c r="G294" s="55"/>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:7">
       <c r="C295" s="54"/>
       <c r="D295" s="54"/>
       <c r="G295" s="55"/>
     </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:7">
       <c r="C296" s="54"/>
       <c r="D296" s="54"/>
       <c r="G296" s="55"/>
     </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:7">
       <c r="C297" s="54"/>
       <c r="D297" s="54"/>
       <c r="G297" s="55"/>
     </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:7">
       <c r="C298" s="57"/>
       <c r="D298" s="57"/>
       <c r="G298" s="56"/>
     </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:7">
       <c r="C299" s="43"/>
       <c r="D299" s="43"/>
       <c r="G299" s="42"/>
     </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:7">
       <c r="C300" s="42"/>
       <c r="D300" s="42"/>
       <c r="G300" s="42"/>
     </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:7">
       <c r="C301" s="45"/>
       <c r="D301" s="45"/>
       <c r="G301" s="44"/>
     </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:7">
       <c r="C302" s="42"/>
       <c r="D302" s="42"/>
       <c r="G302" s="43"/>
     </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:7">
       <c r="C303" s="45"/>
       <c r="D303" s="45"/>
       <c r="G303" s="45"/>
     </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:7">
       <c r="C304" s="42"/>
       <c r="D304" s="42"/>
       <c r="G304" s="42"/>
     </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:7">
       <c r="C305" s="45"/>
       <c r="D305" s="45"/>
       <c r="G305" s="44"/>
     </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:7">
       <c r="C306" s="45"/>
       <c r="D306" s="45"/>
       <c r="G306" s="44"/>
     </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:7">
       <c r="C307" s="45"/>
       <c r="D307" s="45"/>
       <c r="G307" s="44"/>
     </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:7">
       <c r="C308" s="46"/>
       <c r="D308" s="46"/>
       <c r="G308" s="47"/>
     </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:7">
       <c r="C309" s="42"/>
       <c r="D309" s="42"/>
       <c r="G309" s="43"/>
     </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:7">
       <c r="C310" s="43"/>
       <c r="D310" s="43"/>
       <c r="G310" s="42"/>
     </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:7">
       <c r="C311" s="42"/>
       <c r="D311" s="42"/>
       <c r="G311" s="43"/>
     </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:7">
       <c r="C312" s="45"/>
       <c r="D312" s="45"/>
       <c r="G312" s="45"/>
     </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:7">
       <c r="C313" s="42"/>
       <c r="D313" s="42"/>
       <c r="G313" s="43"/>
     </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:7">
       <c r="C314" s="45"/>
       <c r="D314" s="45"/>
       <c r="G314" s="45"/>
     </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:7">
       <c r="C315" s="48"/>
       <c r="D315" s="48"/>
       <c r="G315" s="48"/>
     </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:7">
       <c r="C316" s="51"/>
       <c r="D316" s="51"/>
       <c r="G316" s="51"/>
     </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:7">
       <c r="C317" s="53"/>
       <c r="D317" s="53"/>
       <c r="G317" s="53"/>
     </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:7">
       <c r="C318" s="55"/>
       <c r="D318" s="55"/>
       <c r="G318" s="55"/>
     </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:7">
       <c r="C319" s="55"/>
       <c r="D319" s="55"/>
       <c r="G319" s="55"/>
     </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:7">
       <c r="C320" s="55"/>
       <c r="D320" s="55"/>
       <c r="G320" s="55"/>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:7">
       <c r="C321" s="55"/>
       <c r="D321" s="55"/>
       <c r="G321" s="55"/>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:7">
       <c r="C322" s="56"/>
       <c r="D322" s="56"/>
       <c r="G322" s="56"/>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:7">
       <c r="C323" s="56"/>
       <c r="D323" s="56"/>
       <c r="G323" s="56"/>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:7">
       <c r="C324" s="59"/>
       <c r="D324" s="59"/>
       <c r="G324" s="58"/>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:7">
       <c r="C325" s="60"/>
       <c r="D325" s="60"/>
       <c r="G325" s="60"/>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:7">
       <c r="C326" s="62"/>
       <c r="D326" s="62"/>
       <c r="G326" s="62"/>
     </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:7">
       <c r="C327" s="62"/>
       <c r="D327" s="62"/>
       <c r="G327" s="62"/>
     </row>
-    <row r="328" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:7">
       <c r="C328" s="65"/>
       <c r="D328" s="65"/>
       <c r="G328" s="64"/>
     </row>
-    <row r="329" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:7">
       <c r="C329" s="66"/>
       <c r="D329" s="66"/>
       <c r="G329" s="66"/>
     </row>
-    <row r="330" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:7">
       <c r="C330" s="68"/>
       <c r="D330" s="68"/>
       <c r="G330" s="68"/>
     </row>
-    <row r="331" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:7">
       <c r="C331" s="70"/>
       <c r="D331" s="70"/>
       <c r="G331" s="70"/>
     </row>
-    <row r="332" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:7">
       <c r="C332" s="43"/>
       <c r="D332" s="43"/>
       <c r="G332" s="42"/>
     </row>
-    <row r="333" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:7">
       <c r="C333" s="42"/>
       <c r="D333" s="42"/>
       <c r="G333" s="43"/>
     </row>
-    <row r="334" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:7">
       <c r="C334" s="45"/>
       <c r="D334" s="45"/>
       <c r="G334" s="44"/>
     </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:7">
       <c r="C335" s="42"/>
       <c r="D335" s="42"/>
       <c r="G335" s="43"/>
     </row>
-    <row r="336" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:7">
       <c r="C336" s="44"/>
       <c r="D336" s="44"/>
       <c r="G336" s="45"/>
     </row>
-    <row r="337" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:7">
       <c r="C337" s="42"/>
       <c r="D337" s="42"/>
       <c r="G337" s="43"/>
     </row>
-    <row r="338" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:7">
       <c r="C338" s="44"/>
       <c r="D338" s="44"/>
       <c r="G338" s="45"/>
     </row>
-    <row r="339" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:7">
       <c r="C339" s="42"/>
       <c r="D339" s="42"/>
       <c r="G339" s="43"/>
     </row>
-    <row r="340" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:7">
       <c r="C340" s="42"/>
       <c r="D340" s="42"/>
       <c r="G340" s="43"/>
     </row>
-    <row r="341" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:7">
       <c r="C341" s="44"/>
       <c r="D341" s="44"/>
       <c r="G341" s="45"/>
     </row>
-    <row r="342" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:7">
       <c r="C342" s="42"/>
       <c r="D342" s="43"/>
       <c r="G342" s="43"/>
     </row>
-    <row r="343" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:7">
       <c r="C343" s="45"/>
       <c r="D343" s="45"/>
       <c r="G343" s="45"/>
     </row>
-    <row r="344" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:7">
       <c r="C344" s="45"/>
       <c r="D344" s="45"/>
       <c r="G344" s="45"/>
     </row>
-    <row r="345" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:7">
       <c r="C345" s="45"/>
       <c r="D345" s="45"/>
       <c r="G345" s="45"/>
     </row>
-    <row r="346" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:7">
       <c r="C346" s="46"/>
       <c r="D346" s="46"/>
       <c r="G346" s="46"/>
     </row>
-    <row r="347" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:7">
       <c r="C347" s="48"/>
       <c r="D347" s="48"/>
       <c r="G347" s="48"/>
     </row>
-    <row r="348" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:7">
       <c r="C348" s="48"/>
       <c r="D348" s="48"/>
       <c r="G348" s="48"/>
     </row>
-    <row r="349" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:7">
       <c r="C349" s="51"/>
       <c r="D349" s="51"/>
       <c r="G349" s="51"/>
     </row>
-    <row r="350" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:7">
       <c r="C350" s="53"/>
       <c r="D350" s="53"/>
       <c r="G350" s="53"/>
     </row>
-    <row r="351" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:7">
       <c r="C351" s="55"/>
       <c r="D351" s="55"/>
       <c r="G351" s="55"/>
     </row>
-    <row r="352" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:7">
       <c r="C352" s="55"/>
       <c r="D352" s="55"/>
       <c r="G352" s="55"/>
     </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:7">
       <c r="C353" s="55"/>
       <c r="D353" s="55"/>
       <c r="G353" s="55"/>
     </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:7">
       <c r="C354" s="55"/>
       <c r="D354" s="55"/>
       <c r="G354" s="55"/>
     </row>
-    <row r="355" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:7">
       <c r="C355" s="56"/>
       <c r="D355" s="56"/>
       <c r="G355" s="56"/>
     </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:7">
       <c r="C356" s="59"/>
       <c r="D356" s="59"/>
       <c r="G356" s="58"/>
     </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:7">
       <c r="C357" s="61"/>
       <c r="D357" s="61"/>
       <c r="G357" s="60"/>
     </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:7">
       <c r="C358" s="63"/>
       <c r="D358" s="63"/>
       <c r="G358" s="62"/>
     </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:7">
       <c r="C359" s="63"/>
       <c r="D359" s="63"/>
       <c r="G359" s="62"/>
     </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:7">
       <c r="C360" s="65"/>
       <c r="D360" s="65"/>
       <c r="G360" s="64"/>
     </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:7">
       <c r="C361" s="67"/>
       <c r="D361" s="67"/>
       <c r="G361" s="66"/>
     </row>
-    <row r="362" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:7">
       <c r="C362" s="69"/>
       <c r="D362" s="69"/>
       <c r="G362" s="68"/>
     </row>
-    <row r="363" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:7">
       <c r="C363" s="71"/>
       <c r="D363" s="71"/>
       <c r="G363" s="70"/>
     </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:7">
       <c r="C364" s="42"/>
       <c r="D364" s="42"/>
       <c r="G364" s="43"/>
     </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:7">
       <c r="C365" s="43"/>
       <c r="D365" s="43"/>
       <c r="G365" s="43"/>
     </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:7">
       <c r="C366" s="45"/>
       <c r="D366" s="45"/>
       <c r="G366" s="45"/>
     </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:7">
       <c r="C367" s="43"/>
       <c r="D367" s="43"/>
       <c r="G367" s="43"/>
     </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:7">
       <c r="C368" s="45"/>
       <c r="D368" s="45"/>
       <c r="G368" s="45"/>
     </row>
-    <row r="369" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:7">
       <c r="C369" s="43"/>
       <c r="D369" s="43"/>
       <c r="G369" s="42"/>
     </row>
-    <row r="370" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:7">
       <c r="C370" s="45"/>
       <c r="D370" s="45"/>
       <c r="G370" s="45"/>
     </row>
-    <row r="371" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:7">
       <c r="C371" s="42"/>
       <c r="D371" s="42"/>
       <c r="G371" s="43"/>
     </row>
-    <row r="372" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:7">
       <c r="C372" s="45"/>
       <c r="D372" s="45"/>
       <c r="G372" s="45"/>
     </row>
-    <row r="373" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:7">
       <c r="C373" s="56"/>
       <c r="D373" s="56"/>
       <c r="G373" s="56"/>
     </row>
-    <row r="374" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:7">
       <c r="C374" s="58"/>
       <c r="D374" s="58"/>
       <c r="G374" s="58"/>
     </row>
-    <row r="375" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:7">
       <c r="C375" s="61"/>
       <c r="D375" s="61"/>
       <c r="G375" s="60"/>
     </row>
-    <row r="376" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:7">
       <c r="C376" s="63"/>
       <c r="D376" s="63"/>
       <c r="G376" s="62"/>
     </row>
-    <row r="377" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:7">
       <c r="C377" s="63"/>
       <c r="D377" s="63"/>
       <c r="G377" s="62"/>
     </row>
-    <row r="378" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:7">
       <c r="C378" s="65"/>
       <c r="D378" s="65"/>
       <c r="G378" s="64"/>
     </row>
-    <row r="379" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:7">
       <c r="C379" s="66"/>
       <c r="D379" s="66"/>
       <c r="G379" s="66"/>
     </row>
-    <row r="380" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:7">
       <c r="C380" s="68"/>
       <c r="D380" s="68"/>
       <c r="G380" s="68"/>
     </row>
-    <row r="381" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:7">
       <c r="C381" s="70"/>
       <c r="D381" s="70"/>
       <c r="G381" s="70"/>
     </row>
-    <row r="382" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:7">
       <c r="C382" s="44"/>
       <c r="D382" s="44"/>
       <c r="G382" s="44"/>
     </row>
-    <row r="383" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:7">
       <c r="C383" s="44"/>
       <c r="D383" s="44"/>
       <c r="G383" s="45"/>
     </row>
-    <row r="384" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:7">
       <c r="C384" s="44"/>
       <c r="D384" s="44"/>
       <c r="G384" s="44"/>
     </row>
-    <row r="385" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:7">
       <c r="C385" s="45"/>
       <c r="D385" s="45"/>
       <c r="G385" s="44"/>
     </row>
-    <row r="386" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:7">
       <c r="C386" s="44"/>
       <c r="D386" s="44"/>
       <c r="G386" s="45"/>
     </row>
-    <row r="387" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:7">
       <c r="C387" s="45"/>
       <c r="D387" s="45"/>
       <c r="G387" s="45"/>
     </row>
-    <row r="388" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:7">
       <c r="C388" s="45"/>
       <c r="D388" s="45"/>
       <c r="G388" s="45"/>
     </row>
-    <row r="389" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:7">
       <c r="C389" s="45"/>
       <c r="D389" s="45"/>
       <c r="G389" s="44"/>
     </row>
-    <row r="390" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:7">
       <c r="C390" s="44"/>
       <c r="D390" s="44"/>
       <c r="G390" s="45"/>
     </row>
-    <row r="391" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:7">
       <c r="C391" s="56"/>
       <c r="D391" s="56"/>
       <c r="G391" s="56"/>
     </row>
-    <row r="392" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:7">
       <c r="C392" s="41"/>
       <c r="D392" s="41"/>
       <c r="G392" s="41"/>
     </row>
-    <row r="393" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:7">
       <c r="C393" s="41"/>
       <c r="D393" s="41"/>
       <c r="G393" s="41"/>
     </row>
-    <row r="394" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:7">
       <c r="C394" s="35"/>
       <c r="D394" s="35"/>
       <c r="G394" s="34"/>
     </row>
-    <row r="395" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:7">
       <c r="C395" s="35"/>
       <c r="D395" s="35"/>
       <c r="G395" s="34"/>
     </row>
-    <row r="396" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:7">
       <c r="C396" s="37"/>
       <c r="D396" s="37"/>
       <c r="G396" s="36"/>
     </row>
-    <row r="397" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:7">
       <c r="C397" s="39"/>
       <c r="D397" s="39"/>
       <c r="G397" s="38"/>
     </row>
-    <row r="398" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:7">
       <c r="C398" s="41"/>
       <c r="D398" s="41"/>
       <c r="G398" s="40"/>
     </row>
-    <row r="399" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:7">
       <c r="C399" s="41"/>
       <c r="D399" s="41"/>
       <c r="G399" s="40"/>
     </row>
-    <row r="400" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:7">
       <c r="C400" s="41"/>
       <c r="D400" s="41"/>
       <c r="G400" s="40"/>
     </row>
-    <row r="401" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:7">
       <c r="C401" s="34"/>
       <c r="D401" s="34"/>
       <c r="G401" s="35"/>
     </row>
-    <row r="402" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:7">
       <c r="C402" s="34"/>
       <c r="D402" s="34"/>
       <c r="G402" s="35"/>
     </row>
-    <row r="403" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:7">
       <c r="C403" s="36"/>
       <c r="D403" s="36"/>
       <c r="G403" s="37"/>
     </row>
-    <row r="404" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:7">
       <c r="C404" s="38"/>
       <c r="D404" s="38"/>
       <c r="G404" s="39"/>
     </row>
-    <row r="405" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:7">
       <c r="C405" s="40"/>
       <c r="D405" s="40"/>
       <c r="G405" s="41"/>
     </row>
-    <row r="406" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:7">
       <c r="C406" s="40"/>
       <c r="D406" s="40"/>
       <c r="G406" s="41"/>
     </row>
-    <row r="407" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:7">
       <c r="C407" s="40"/>
       <c r="D407" s="40"/>
       <c r="G407" s="41"/>
     </row>
-    <row r="408" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:7">
       <c r="C408" s="35"/>
       <c r="D408" s="35"/>
       <c r="G408" s="34"/>
     </row>
-    <row r="409" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:7">
       <c r="C409" s="35"/>
       <c r="D409" s="35"/>
       <c r="G409" s="34"/>
     </row>
-    <row r="410" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:7">
       <c r="C410" s="37"/>
       <c r="D410" s="37"/>
       <c r="G410" s="36"/>
     </row>
-    <row r="411" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:7">
       <c r="C411" s="39"/>
       <c r="D411" s="39"/>
       <c r="G411" s="38"/>
     </row>
-    <row r="412" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:7">
       <c r="C412" s="41"/>
       <c r="D412" s="41"/>
       <c r="G412" s="40"/>
     </row>
-    <row r="413" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:7">
       <c r="C413" s="41"/>
       <c r="D413" s="41"/>
       <c r="G413" s="40"/>
     </row>
-    <row r="414" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:7">
       <c r="C414" s="41"/>
       <c r="D414" s="41"/>
       <c r="G414" s="40"/>
     </row>
-    <row r="415" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:7">
       <c r="C415" s="35"/>
       <c r="D415" s="35"/>
       <c r="G415" s="34"/>
     </row>
-    <row r="416" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:7">
       <c r="C416" s="35"/>
       <c r="D416" s="35"/>
       <c r="G416" s="34"/>
     </row>
-    <row r="417" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:7">
       <c r="C417" s="37"/>
       <c r="D417" s="37"/>
       <c r="G417" s="36"/>
     </row>
-    <row r="418" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:7">
       <c r="C418" s="39"/>
       <c r="D418" s="39"/>
       <c r="G418" s="38"/>
     </row>
-    <row r="419" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:7">
       <c r="C419" s="41"/>
       <c r="D419" s="41"/>
       <c r="G419" s="40"/>
     </row>
-    <row r="420" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:7">
       <c r="C420" s="41"/>
       <c r="D420" s="41"/>
       <c r="G420" s="40"/>
     </row>
-    <row r="421" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:7">
       <c r="C421" s="41"/>
       <c r="D421" s="41"/>
       <c r="G421" s="40"/>
     </row>
-    <row r="422" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:7">
       <c r="C422" s="35"/>
       <c r="D422" s="35"/>
       <c r="G422" s="34"/>
     </row>
-    <row r="423" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:7">
       <c r="C423" s="34"/>
       <c r="D423" s="34"/>
       <c r="G423" s="34"/>
     </row>
-    <row r="424" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:7">
       <c r="C424" s="36"/>
       <c r="D424" s="36"/>
       <c r="G424" s="36"/>
     </row>
-    <row r="425" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:7">
       <c r="C425" s="38"/>
       <c r="D425" s="38"/>
       <c r="G425" s="38"/>
     </row>
-    <row r="426" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:7">
       <c r="C426" s="40"/>
       <c r="D426" s="41"/>
       <c r="G426" s="40"/>
     </row>
-    <row r="427" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:7">
       <c r="C427" s="40"/>
       <c r="D427" s="40"/>
       <c r="G427" s="40"/>
     </row>
-    <row r="428" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:7">
       <c r="C428" s="40"/>
       <c r="D428" s="40"/>
       <c r="G428" s="40"/>
     </row>
-    <row r="429" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:7">
       <c r="C429" s="34"/>
       <c r="D429" s="34"/>
       <c r="G429" s="35"/>
     </row>
-    <row r="430" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:7">
       <c r="C430" s="34"/>
       <c r="D430" s="34"/>
       <c r="G430" s="35"/>
     </row>
-    <row r="431" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:7">
       <c r="C431" s="36"/>
       <c r="D431" s="36"/>
       <c r="G431" s="37"/>
     </row>
-    <row r="432" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:7">
       <c r="C432" s="38"/>
       <c r="D432" s="38"/>
       <c r="G432" s="39"/>
     </row>
-    <row r="433" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:7">
       <c r="C433" s="40"/>
       <c r="D433" s="40"/>
       <c r="G433" s="41"/>
     </row>
-    <row r="434" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:7">
       <c r="C434" s="40"/>
       <c r="D434" s="40"/>
       <c r="G434" s="41"/>
     </row>
-    <row r="435" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:7">
       <c r="C435" s="40"/>
       <c r="D435" s="40"/>
       <c r="G435" s="41"/>
     </row>
-    <row r="436" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:7">
       <c r="C436" s="34"/>
       <c r="D436" s="34"/>
       <c r="G436" s="34"/>
     </row>
-    <row r="437" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:7">
       <c r="C437" s="34"/>
       <c r="D437" s="34"/>
       <c r="G437" s="34"/>
     </row>
-    <row r="438" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:7">
       <c r="C438" s="36"/>
       <c r="D438" s="36"/>
       <c r="G438" s="36"/>
     </row>
-    <row r="439" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:7">
       <c r="C439" s="38"/>
       <c r="D439" s="38"/>
       <c r="G439" s="38"/>
     </row>
-    <row r="440" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:7">
       <c r="C440" s="40"/>
       <c r="D440" s="40"/>
       <c r="G440" s="40"/>
     </row>
-    <row r="441" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:7">
       <c r="C441" s="40"/>
       <c r="D441" s="40"/>
       <c r="G441" s="40"/>
     </row>
-    <row r="442" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:7">
       <c r="C442" s="40"/>
       <c r="D442" s="40"/>
       <c r="G442" s="40"/>
     </row>
-    <row r="443" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:7">
       <c r="C443" s="34"/>
       <c r="D443" s="34"/>
       <c r="G443" s="35"/>
     </row>
-    <row r="444" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:7">
       <c r="C444" s="34"/>
       <c r="D444" s="34"/>
       <c r="G444" s="35"/>
     </row>
-    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:7">
       <c r="C445" s="36"/>
       <c r="D445" s="36"/>
       <c r="G445" s="37"/>
     </row>
-    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:7">
       <c r="C446" s="38"/>
       <c r="D446" s="38"/>
       <c r="G446" s="39"/>
     </row>
-    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:7">
       <c r="C447" s="40"/>
       <c r="D447" s="40"/>
       <c r="G447" s="41"/>
     </row>
-    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:7">
       <c r="C448" s="40"/>
       <c r="D448" s="40"/>
       <c r="G448" s="41"/>
     </row>
-    <row r="449" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:7">
       <c r="C449" s="40"/>
       <c r="D449" s="40"/>
       <c r="G449" s="41"/>
     </row>
-    <row r="450" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:7">
       <c r="C450" s="35"/>
       <c r="D450" s="35"/>
       <c r="G450" s="34"/>
     </row>
-    <row r="451" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:7">
       <c r="C451" s="35"/>
       <c r="D451" s="35"/>
       <c r="G451" s="34"/>
     </row>
-    <row r="452" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:7">
       <c r="C452" s="37"/>
       <c r="D452" s="37"/>
       <c r="G452" s="36"/>
     </row>
-    <row r="453" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:7">
       <c r="C453" s="39"/>
       <c r="D453" s="39"/>
       <c r="G453" s="38"/>
     </row>
-    <row r="454" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:7">
       <c r="C454" s="41"/>
       <c r="D454" s="41"/>
       <c r="G454" s="40"/>
     </row>
-    <row r="455" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:7">
       <c r="C455" s="41"/>
       <c r="D455" s="41"/>
       <c r="G455" s="40"/>
     </row>
-    <row r="456" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:7">
       <c r="C456" s="41"/>
       <c r="D456" s="41"/>
       <c r="G456" s="40"/>
     </row>
-    <row r="457" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:7">
       <c r="C457" s="34"/>
       <c r="D457" s="34"/>
       <c r="G457" s="35"/>
     </row>
-    <row r="458" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:7">
       <c r="C458" s="34"/>
       <c r="D458" s="34"/>
       <c r="G458" s="35"/>
     </row>
-    <row r="459" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:7">
       <c r="C459" s="36"/>
       <c r="D459" s="36"/>
       <c r="G459" s="37"/>
     </row>
-    <row r="460" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:7">
       <c r="C460" s="38"/>
       <c r="D460" s="38"/>
       <c r="G460" s="39"/>
     </row>
-    <row r="461" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:7">
       <c r="C461" s="40"/>
       <c r="D461" s="40"/>
       <c r="G461" s="41"/>
     </row>
-    <row r="462" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:7">
       <c r="C462" s="40"/>
       <c r="D462" s="40"/>
       <c r="G462" s="41"/>
     </row>
-    <row r="463" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:7">
       <c r="C463" s="40"/>
       <c r="D463" s="40"/>
       <c r="G463" s="41"/>
     </row>
-    <row r="464" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:7">
       <c r="C464" s="34"/>
       <c r="D464" s="34"/>
       <c r="G464" s="35"/>
     </row>
-    <row r="465" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:7">
       <c r="C465" s="34"/>
       <c r="D465" s="34"/>
       <c r="G465" s="35"/>
     </row>
-    <row r="466" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:7">
       <c r="C466" s="36"/>
       <c r="D466" s="36"/>
       <c r="G466" s="37"/>
     </row>
-    <row r="467" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:7">
       <c r="C467" s="38"/>
       <c r="D467" s="38"/>
       <c r="G467" s="39"/>
     </row>
-    <row r="468" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:7">
       <c r="C468" s="40"/>
       <c r="D468" s="40"/>
       <c r="G468" s="41"/>
     </row>
-    <row r="469" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:7">
       <c r="C469" s="40"/>
       <c r="D469" s="40"/>
       <c r="G469" s="41"/>
     </row>
-    <row r="470" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:7">
       <c r="C470" s="40"/>
       <c r="D470" s="40"/>
       <c r="G470" s="41"/>
     </row>
-    <row r="471" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:7">
       <c r="C471" s="35"/>
       <c r="D471" s="35"/>
       <c r="G471" s="34"/>
     </row>
-    <row r="472" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:7">
       <c r="C472" s="35"/>
       <c r="D472" s="35"/>
       <c r="G472" s="34"/>
     </row>
-    <row r="473" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:7">
       <c r="C473" s="37"/>
       <c r="D473" s="37"/>
       <c r="G473" s="36"/>
     </row>
-    <row r="474" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:7">
       <c r="C474" s="39"/>
       <c r="D474" s="39"/>
       <c r="G474" s="38"/>
     </row>
-    <row r="475" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:7">
       <c r="C475" s="41"/>
       <c r="D475" s="41"/>
       <c r="G475" s="40"/>
     </row>
-    <row r="476" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:7">
       <c r="C476" s="41"/>
       <c r="D476" s="41"/>
       <c r="G476" s="40"/>
     </row>
-    <row r="477" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:7">
       <c r="C477" s="41"/>
       <c r="D477" s="41"/>
       <c r="G477" s="40"/>
     </row>
-    <row r="478" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:7">
       <c r="C478" s="34"/>
       <c r="D478" s="34"/>
       <c r="G478" s="35"/>
     </row>
-    <row r="479" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:7">
       <c r="C479" s="34"/>
       <c r="D479" s="34"/>
       <c r="G479" s="35"/>
     </row>
-    <row r="480" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:7">
       <c r="C480" s="36"/>
       <c r="D480" s="36"/>
       <c r="G480" s="37"/>
     </row>
-    <row r="481" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:7">
       <c r="C481" s="38"/>
       <c r="D481" s="38"/>
       <c r="G481" s="39"/>
     </row>
-    <row r="482" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:7">
       <c r="C482" s="40"/>
       <c r="D482" s="40"/>
       <c r="G482" s="41"/>
     </row>
-    <row r="483" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:7">
       <c r="C483" s="40"/>
       <c r="D483" s="40"/>
       <c r="G483" s="41"/>
     </row>
-    <row r="484" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:7">
       <c r="C484" s="40"/>
       <c r="D484" s="40"/>
       <c r="G484" s="41"/>
     </row>
-    <row r="485" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:7">
       <c r="C485" s="34"/>
       <c r="D485" s="34"/>
       <c r="G485" s="35"/>
     </row>
-    <row r="486" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:7">
       <c r="C486" s="34"/>
       <c r="D486" s="34"/>
       <c r="G486" s="35"/>
     </row>
-    <row r="487" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:7">
       <c r="C487" s="36"/>
       <c r="D487" s="36"/>
       <c r="G487" s="37"/>
     </row>
-    <row r="488" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:7">
       <c r="C488" s="38"/>
       <c r="D488" s="38"/>
       <c r="G488" s="39"/>
     </row>
-    <row r="489" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:7">
       <c r="C489" s="40"/>
       <c r="D489" s="40"/>
       <c r="G489" s="41"/>
     </row>
-    <row r="490" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:7">
       <c r="C490" s="40"/>
       <c r="D490" s="40"/>
       <c r="G490" s="41"/>
     </row>
-    <row r="491" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:7">
       <c r="C491" s="40"/>
       <c r="D491" s="40"/>
       <c r="G491" s="41"/>
     </row>
-    <row r="492" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:7">
       <c r="C492" s="34"/>
       <c r="D492" s="34"/>
       <c r="G492" s="35"/>
     </row>
-    <row r="493" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:7">
       <c r="C493" s="34"/>
       <c r="D493" s="34"/>
       <c r="G493" s="35"/>
     </row>
-    <row r="494" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:7">
       <c r="C494" s="36"/>
       <c r="D494" s="36"/>
       <c r="G494" s="37"/>
     </row>
-    <row r="495" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:7">
       <c r="C495" s="38"/>
       <c r="D495" s="38"/>
       <c r="G495" s="39"/>
     </row>
-    <row r="496" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:7">
       <c r="C496" s="40"/>
       <c r="D496" s="40"/>
       <c r="G496" s="41"/>
     </row>
-    <row r="497" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:7">
       <c r="C497" s="40"/>
       <c r="D497" s="40"/>
       <c r="G497" s="41"/>
     </row>
-    <row r="498" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:7">
       <c r="C498" s="40"/>
       <c r="D498" s="40"/>
       <c r="G498" s="41"/>
     </row>
-    <row r="499" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:7">
       <c r="C499" s="34"/>
       <c r="D499" s="34"/>
       <c r="G499" s="35"/>
     </row>
-    <row r="500" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:7">
       <c r="C500" s="34"/>
       <c r="D500" s="34"/>
       <c r="G500" s="35"/>
     </row>
-    <row r="501" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:7">
       <c r="C501" s="36"/>
       <c r="D501" s="36"/>
       <c r="G501" s="37"/>
     </row>
-    <row r="502" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:7">
       <c r="C502" s="38"/>
       <c r="D502" s="38"/>
       <c r="G502" s="39"/>
     </row>
-    <row r="503" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:7">
       <c r="C503" s="40"/>
       <c r="D503" s="40"/>
       <c r="G503" s="41"/>
     </row>
-    <row r="504" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:7">
       <c r="C504" s="40"/>
       <c r="D504" s="40"/>
       <c r="G504" s="41"/>
     </row>
-    <row r="505" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:7">
       <c r="C505" s="40"/>
       <c r="D505" s="40"/>
       <c r="G505" s="41"/>
     </row>
-    <row r="506" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:7">
       <c r="C506" s="34"/>
       <c r="D506" s="34"/>
       <c r="G506" s="35"/>
     </row>
-    <row r="507" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:7">
       <c r="C507" s="34"/>
       <c r="D507" s="34"/>
       <c r="G507" s="35"/>
     </row>
-    <row r="508" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:7">
       <c r="C508" s="36"/>
       <c r="D508" s="36"/>
       <c r="G508" s="37"/>
     </row>
-    <row r="509" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:7">
       <c r="C509" s="38"/>
       <c r="D509" s="38"/>
       <c r="G509" s="39"/>
     </row>
-    <row r="510" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:7">
       <c r="C510" s="40"/>
       <c r="D510" s="40"/>
       <c r="G510" s="41"/>
     </row>
-    <row r="511" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:7">
       <c r="C511" s="40"/>
       <c r="D511" s="40"/>
       <c r="G511" s="41"/>
     </row>
-    <row r="512" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:7">
       <c r="C512" s="40"/>
       <c r="D512" s="40"/>
       <c r="G512" s="41"/>
     </row>
-    <row r="513" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:7">
       <c r="C513" s="35"/>
       <c r="D513" s="35"/>
       <c r="G513" s="35"/>
     </row>
-    <row r="514" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:7">
       <c r="C514" s="35"/>
       <c r="D514" s="35"/>
       <c r="G514" s="35"/>
     </row>
-    <row r="515" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:7">
       <c r="C515" s="37"/>
       <c r="D515" s="37"/>
       <c r="G515" s="37"/>
     </row>
-    <row r="516" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:7">
       <c r="C516" s="39"/>
       <c r="D516" s="39"/>
       <c r="G516" s="39"/>
     </row>
-    <row r="517" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:7">
       <c r="C517" s="41"/>
       <c r="D517" s="41"/>
       <c r="G517" s="41"/>
     </row>
-    <row r="518" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:7">
       <c r="C518" s="41"/>
       <c r="D518" s="41"/>
       <c r="G518" s="41"/>
     </row>
-    <row r="519" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:7">
       <c r="C519" s="41"/>
       <c r="D519" s="41"/>
       <c r="G519" s="41"/>
     </row>
-    <row r="520" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:7">
       <c r="C520" s="34"/>
       <c r="D520" s="34"/>
       <c r="G520" s="35"/>
     </row>
-    <row r="521" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:7">
       <c r="C521" s="34"/>
       <c r="D521" s="34"/>
       <c r="G521" s="35"/>
     </row>
-    <row r="522" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:7">
       <c r="C522" s="36"/>
       <c r="D522" s="36"/>
       <c r="G522" s="37"/>
     </row>
-    <row r="523" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:7">
       <c r="C523" s="38"/>
       <c r="D523" s="38"/>
       <c r="G523" s="39"/>
     </row>
-    <row r="524" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:7">
       <c r="C524" s="40"/>
       <c r="D524" s="40"/>
       <c r="G524" s="41"/>
     </row>
-    <row r="525" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:7">
       <c r="C525" s="40"/>
       <c r="D525" s="40"/>
       <c r="G525" s="41"/>
     </row>
-    <row r="526" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:7">
       <c r="C526" s="40"/>
       <c r="D526" s="40"/>
       <c r="G526" s="41"/>
     </row>
-    <row r="527" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:7">
       <c r="C527" s="35"/>
       <c r="D527" s="35"/>
       <c r="G527" s="35"/>
     </row>
-    <row r="528" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:7">
       <c r="C528" s="35"/>
       <c r="D528" s="35"/>
       <c r="G528" s="35"/>
     </row>
-    <row r="529" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:7">
       <c r="C529" s="37"/>
       <c r="D529" s="37"/>
       <c r="G529" s="37"/>
     </row>
-    <row r="530" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:7">
       <c r="C530" s="39"/>
       <c r="D530" s="39"/>
       <c r="G530" s="39"/>
     </row>
-    <row r="531" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:7">
       <c r="C531" s="41"/>
       <c r="D531" s="41"/>
       <c r="G531" s="41"/>
     </row>
-    <row r="532" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:7">
       <c r="C532" s="41"/>
       <c r="D532" s="41"/>
       <c r="G532" s="41"/>
     </row>
-    <row r="533" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:7">
       <c r="C533" s="41"/>
       <c r="D533" s="41"/>
       <c r="G533" s="41"/>
     </row>
-    <row r="534" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:7">
       <c r="C534" s="35"/>
       <c r="D534" s="35"/>
       <c r="G534" s="35"/>
     </row>
-    <row r="535" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:7">
       <c r="C535" s="35"/>
       <c r="D535" s="35"/>
       <c r="G535" s="35"/>
     </row>
-    <row r="536" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:7">
       <c r="C536" s="37"/>
       <c r="D536" s="37"/>
       <c r="G536" s="37"/>
     </row>
-    <row r="537" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:7">
       <c r="C537" s="39"/>
       <c r="D537" s="39"/>
       <c r="G537" s="39"/>
     </row>
-    <row r="538" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:7">
       <c r="C538" s="41"/>
       <c r="D538" s="41"/>
       <c r="G538" s="41"/>
     </row>
-    <row r="539" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:7">
       <c r="C539" s="41"/>
       <c r="D539" s="41"/>
       <c r="G539" s="41"/>
     </row>
-    <row r="540" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:7">
       <c r="C540" s="41"/>
       <c r="D540" s="41"/>
       <c r="G540" s="41"/>
     </row>
-    <row r="541" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:7">
       <c r="C541" s="35"/>
       <c r="D541" s="35"/>
       <c r="G541" s="34"/>
     </row>
-    <row r="542" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:7">
       <c r="C542" s="35"/>
       <c r="D542" s="35"/>
       <c r="G542" s="34"/>
     </row>
-    <row r="543" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:7">
       <c r="C543" s="37"/>
       <c r="D543" s="37"/>
       <c r="G543" s="36"/>
     </row>
-    <row r="544" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:7">
       <c r="C544" s="39"/>
       <c r="D544" s="39"/>
       <c r="G544" s="38"/>
     </row>
-    <row r="545" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:7">
       <c r="C545" s="41"/>
       <c r="D545" s="41"/>
       <c r="G545" s="40"/>
     </row>
-    <row r="546" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:7">
       <c r="C546" s="41"/>
       <c r="D546" s="41"/>
       <c r="G546" s="40"/>
     </row>
-    <row r="547" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:7">
       <c r="C547" s="41"/>
       <c r="D547" s="41"/>
       <c r="G547" s="40"/>
     </row>
-    <row r="548" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:7">
       <c r="C548" s="34"/>
       <c r="D548" s="34"/>
       <c r="G548" s="35"/>
     </row>
-    <row r="549" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:7">
       <c r="C549" s="34"/>
       <c r="D549" s="34"/>
       <c r="G549" s="35"/>
     </row>
-    <row r="550" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:7">
       <c r="C550" s="34"/>
       <c r="D550" s="34"/>
       <c r="G550" s="35"/>
     </row>
-    <row r="551" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:7">
       <c r="C551" s="34"/>
       <c r="D551" s="34"/>
       <c r="G551" s="35"/>
     </row>
-    <row r="552" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:7">
       <c r="C552" s="36"/>
       <c r="D552" s="36"/>
       <c r="G552" s="37"/>
     </row>
-    <row r="553" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:7">
       <c r="C553" s="38"/>
       <c r="D553" s="38"/>
       <c r="G553" s="39"/>
     </row>
-    <row r="554" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:7">
       <c r="C554" s="40"/>
       <c r="D554" s="40"/>
       <c r="G554" s="41"/>
     </row>
-    <row r="555" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:7">
       <c r="C555" s="40"/>
       <c r="D555" s="40"/>
       <c r="G555" s="41"/>
     </row>
-    <row r="556" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:7">
       <c r="C556" s="40"/>
       <c r="D556" s="40"/>
       <c r="G556" s="41"/>
     </row>
-    <row r="557" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:7">
       <c r="C557" s="33"/>
       <c r="D557" s="33"/>
       <c r="G557" s="32"/>
     </row>
-    <row r="558" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:7">
       <c r="C558" s="32"/>
       <c r="D558" s="32"/>
       <c r="G558" s="33"/>
     </row>
-    <row r="559" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:7">
       <c r="C559" s="32"/>
       <c r="D559" s="32"/>
       <c r="G559" s="33"/>
     </row>
-    <row r="560" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:7">
       <c r="C560" s="32"/>
       <c r="D560" s="32"/>
       <c r="G560" s="33"/>
     </row>
-    <row r="561" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:7">
       <c r="C561" s="33"/>
       <c r="D561" s="33"/>
       <c r="G561" s="32"/>
     </row>
-    <row r="562" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:7">
       <c r="C562" s="33"/>
       <c r="D562" s="33"/>
       <c r="G562" s="32"/>
     </row>
-    <row r="563" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:7">
       <c r="C563" s="33"/>
       <c r="D563" s="33"/>
       <c r="G563" s="32"/>
     </row>
-    <row r="564" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:7">
       <c r="C564" s="32"/>
       <c r="D564" s="32"/>
       <c r="G564" s="33"/>
     </row>
-    <row r="565" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:7">
       <c r="C565" s="32"/>
       <c r="D565" s="32"/>
       <c r="G565" s="33"/>
     </row>
-    <row r="566" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:7">
       <c r="C566" s="32"/>
       <c r="D566" s="32"/>
       <c r="G566" s="33"/>
     </row>
-    <row r="567" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:7">
       <c r="C567" s="32"/>
       <c r="D567" s="32"/>
       <c r="G567" s="33"/>
     </row>
-    <row r="568" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:7">
       <c r="C568" s="32"/>
       <c r="D568" s="32"/>
       <c r="G568" s="33"/>
     </row>
-    <row r="569" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:7">
       <c r="C569" s="32"/>
       <c r="D569" s="32"/>
       <c r="G569" s="33"/>
     </row>
-    <row r="570" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:7">
       <c r="C570" s="32"/>
       <c r="D570" s="32"/>
       <c r="G570" s="33"/>
     </row>
-    <row r="571" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:7">
       <c r="C571" s="32"/>
       <c r="D571" s="32"/>
       <c r="G571" s="33"/>
     </row>
-    <row r="572" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:7">
       <c r="C572" s="32"/>
       <c r="D572" s="32"/>
       <c r="G572" s="33"/>
     </row>
-    <row r="573" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:7">
       <c r="C573" s="32"/>
       <c r="D573" s="32"/>
       <c r="G573" s="33"/>
     </row>
-    <row r="574" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:7">
       <c r="C574" s="32"/>
       <c r="D574" s="32"/>
       <c r="G574" s="33"/>
     </row>
-    <row r="575" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:7">
       <c r="C575" s="32"/>
       <c r="D575" s="32"/>
       <c r="G575" s="33"/>
     </row>
-    <row r="576" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:7">
       <c r="C576" s="32"/>
       <c r="D576" s="32"/>
       <c r="G576" s="33"/>
     </row>
-    <row r="577" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:7">
       <c r="C577" s="32"/>
       <c r="D577" s="32"/>
       <c r="G577" s="33"/>
     </row>
-    <row r="578" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:7">
       <c r="C578" s="32"/>
       <c r="D578" s="32"/>
       <c r="G578" s="33"/>
     </row>
-    <row r="579" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:7">
       <c r="C579" s="32"/>
       <c r="D579" s="32"/>
       <c r="G579" s="33"/>
     </row>
-    <row r="580" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:7">
       <c r="C580" s="32"/>
       <c r="D580" s="32"/>
       <c r="G580" s="33"/>
     </row>
-    <row r="581" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:7">
       <c r="C581" s="32"/>
       <c r="D581" s="32"/>
       <c r="G581" s="33"/>
     </row>
-    <row r="582" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:7">
       <c r="C582" s="32"/>
       <c r="D582" s="32"/>
       <c r="G582" s="33"/>
     </row>
-    <row r="583" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:7">
       <c r="C583" s="32"/>
       <c r="D583" s="32"/>
       <c r="G583" s="33"/>
     </row>
-    <row r="584" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:7">
       <c r="C584" s="32"/>
       <c r="D584" s="32"/>
       <c r="G584" s="33"/>
     </row>
-    <row r="585" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:7">
       <c r="C585" s="33"/>
       <c r="D585" s="33"/>
       <c r="G585" s="33"/>
     </row>
-    <row r="586" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:7">
       <c r="C586" s="33"/>
       <c r="D586" s="33"/>
       <c r="G586" s="33"/>
     </row>
-    <row r="587" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:7">
       <c r="C587" s="33"/>
       <c r="D587" s="33"/>
       <c r="G587" s="33"/>
     </row>
-    <row r="588" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:7">
       <c r="C588" s="32"/>
       <c r="D588" s="32"/>
       <c r="G588" s="33"/>
     </row>
-    <row r="589" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:7">
       <c r="C589" s="32"/>
       <c r="D589" s="32"/>
       <c r="G589" s="33"/>
     </row>
-    <row r="590" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:7">
       <c r="C590" s="32"/>
       <c r="D590" s="32"/>
       <c r="G590" s="33"/>
     </row>
-    <row r="591" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:7">
       <c r="C591" s="33"/>
       <c r="D591" s="33"/>
       <c r="G591" s="33"/>
     </row>
-    <row r="592" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:7">
       <c r="C592" s="33"/>
       <c r="D592" s="33"/>
       <c r="G592" s="33"/>
     </row>
-    <row r="593" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:7">
       <c r="C593" s="33"/>
       <c r="D593" s="33"/>
       <c r="G593" s="33"/>
     </row>
-    <row r="594" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:7">
       <c r="C594" s="33"/>
       <c r="D594" s="33"/>
       <c r="G594" s="32"/>
     </row>
-    <row r="595" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:7">
       <c r="C595" s="33"/>
       <c r="D595" s="33"/>
       <c r="G595" s="32"/>
     </row>
-    <row r="596" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:7">
       <c r="C596" s="33"/>
       <c r="D596" s="33"/>
       <c r="G596" s="32"/>
     </row>
-    <row r="597" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:7">
       <c r="C597" s="32"/>
       <c r="D597" s="32"/>
       <c r="G597" s="33"/>
     </row>
-    <row r="598" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:7">
       <c r="C598" s="32"/>
       <c r="D598" s="32"/>
       <c r="G598" s="33"/>
     </row>
-    <row r="599" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:7">
       <c r="C599" s="32"/>
       <c r="D599" s="32"/>
       <c r="G599" s="33"/>
     </row>
-    <row r="600" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:7">
       <c r="C600" s="32"/>
       <c r="D600" s="32"/>
       <c r="G600" s="33"/>
     </row>
-    <row r="601" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:7">
       <c r="C601" s="32"/>
       <c r="D601" s="32"/>
       <c r="G601" s="33"/>
     </row>
-    <row r="602" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:7">
       <c r="C602" s="33"/>
       <c r="D602" s="33"/>
       <c r="G602" s="32"/>
     </row>
-    <row r="603" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:7">
       <c r="C603" s="33"/>
       <c r="D603" s="33"/>
       <c r="G603" s="32"/>
     </row>
-    <row r="604" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:7">
       <c r="C604" s="32"/>
       <c r="D604" s="32"/>
       <c r="G604" s="33"/>
     </row>
-    <row r="605" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:7">
       <c r="C605" s="32"/>
       <c r="D605" s="32"/>
       <c r="G605" s="33"/>
     </row>
-    <row r="606" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:7">
       <c r="C606" s="33"/>
       <c r="D606" s="33"/>
       <c r="G606" s="33"/>
     </row>
-    <row r="607" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:7">
       <c r="C607" s="24"/>
       <c r="D607" s="24"/>
       <c r="G607" s="25"/>
     </row>
-    <row r="608" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:7">
       <c r="C608" s="24"/>
       <c r="D608" s="24"/>
       <c r="G608" s="25"/>
     </row>
-    <row r="609" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:7">
       <c r="C609" s="24"/>
       <c r="D609" s="24"/>
       <c r="G609" s="25"/>
     </row>
-    <row r="610" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:7">
       <c r="C610" s="24"/>
       <c r="D610" s="24"/>
       <c r="G610" s="25"/>
     </row>
-    <row r="611" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:7">
       <c r="C611" s="24"/>
       <c r="D611" s="24"/>
       <c r="G611" s="25"/>
     </row>
-    <row r="612" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:7">
       <c r="C612" s="24"/>
       <c r="D612" s="24"/>
       <c r="G612" s="25"/>
     </row>
-    <row r="613" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:7">
       <c r="C613" s="24"/>
       <c r="D613" s="24"/>
       <c r="G613" s="25"/>
     </row>
-    <row r="614" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:7">
       <c r="C614" s="24"/>
       <c r="D614" s="24"/>
       <c r="G614" s="25"/>
     </row>
-    <row r="615" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:7">
       <c r="C615" s="26"/>
       <c r="D615" s="26"/>
       <c r="G615" s="27"/>
     </row>
-    <row r="616" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:7">
       <c r="C616" s="26"/>
       <c r="D616" s="26"/>
       <c r="G616" s="27"/>
     </row>
-    <row r="617" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:7">
       <c r="C617" s="26"/>
       <c r="D617" s="26"/>
       <c r="G617" s="27"/>
     </row>
-    <row r="618" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:7">
       <c r="C618" s="26"/>
       <c r="D618" s="26"/>
       <c r="G618" s="27"/>
     </row>
-    <row r="619" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:7">
       <c r="C619" s="28"/>
       <c r="D619" s="28"/>
       <c r="G619" s="29"/>
     </row>
-    <row r="620" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:7">
       <c r="C620" s="30"/>
       <c r="D620" s="30"/>
       <c r="G620" s="31"/>
     </row>
-    <row r="621" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:7">
       <c r="C621" s="30"/>
       <c r="D621" s="30"/>
       <c r="G621" s="31"/>
     </row>
-    <row r="622" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:7">
       <c r="C622" s="30"/>
       <c r="D622" s="30"/>
       <c r="G622" s="31"/>
     </row>
-    <row r="623" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:7">
       <c r="C623" s="30"/>
       <c r="D623" s="30"/>
       <c r="G623" s="31"/>
     </row>
-    <row r="624" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:7">
       <c r="C624" s="30"/>
       <c r="D624" s="30"/>
       <c r="G624" s="31"/>
     </row>
-    <row r="625" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:7">
       <c r="C625" s="7"/>
       <c r="D625" s="7"/>
       <c r="G625" s="7"/>
     </row>
-    <row r="626" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:7">
       <c r="C626" s="7"/>
       <c r="D626" s="7"/>
       <c r="G626" s="7"/>
     </row>
-    <row r="627" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:7">
       <c r="C627" s="7"/>
       <c r="D627" s="7"/>
       <c r="G627" s="7"/>
     </row>
-    <row r="628" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:7">
       <c r="C628" s="10"/>
       <c r="D628" s="10"/>
       <c r="G628" s="10"/>
     </row>
-    <row r="629" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:7">
       <c r="C629" s="9"/>
       <c r="D629" s="9"/>
       <c r="G629" s="10"/>
     </row>
-    <row r="630" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:7">
       <c r="C630" s="9"/>
       <c r="D630" s="9"/>
       <c r="G630" s="10"/>
     </row>
-    <row r="631" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:7">
       <c r="C631" s="10"/>
       <c r="D631" s="10"/>
       <c r="G631" s="10"/>
     </row>
-    <row r="632" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:7">
       <c r="C632" s="13"/>
       <c r="D632" s="13"/>
       <c r="G632" s="13"/>
     </row>
-    <row r="633" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:7">
       <c r="C633" s="15"/>
       <c r="D633" s="15"/>
       <c r="G633" s="15"/>
     </row>
-    <row r="634" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:7">
       <c r="C634" s="17"/>
       <c r="D634" s="17"/>
       <c r="G634" s="17"/>
     </row>
-    <row r="635" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:7">
       <c r="C635" s="19"/>
       <c r="D635" s="19"/>
       <c r="G635" s="19"/>
     </row>
-    <row r="636" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:7">
       <c r="C636" s="21"/>
       <c r="D636" s="21"/>
       <c r="G636" s="21"/>
     </row>
-    <row r="637" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:7">
       <c r="C637" s="21"/>
       <c r="D637" s="21"/>
       <c r="G637" s="21"/>
     </row>
-    <row r="638" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:7">
       <c r="C638" s="21"/>
       <c r="D638" s="21"/>
       <c r="G638" s="21"/>
     </row>
-    <row r="639" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:7">
       <c r="C639" s="21"/>
       <c r="D639" s="21"/>
       <c r="G639" s="21"/>
     </row>
-    <row r="640" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:7">
       <c r="C640" s="23"/>
       <c r="D640" s="23"/>
       <c r="G640" s="23"/>
     </row>
-    <row r="641" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:7">
       <c r="C641" s="23"/>
       <c r="D641" s="23"/>
       <c r="G641" s="23"/>
     </row>
-    <row r="642" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:7">
       <c r="C642" s="23"/>
       <c r="D642" s="23"/>
       <c r="G642" s="23"/>
     </row>
-    <row r="643" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:7">
       <c r="C643" s="23"/>
       <c r="D643" s="23"/>
       <c r="G643" s="23"/>
     </row>
-    <row r="644" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:7">
       <c r="C644" s="25"/>
       <c r="D644" s="25"/>
       <c r="G644" s="25"/>
     </row>
-    <row r="645" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:7">
       <c r="C645" s="25"/>
       <c r="D645" s="25"/>
       <c r="G645" s="25"/>
     </row>
-    <row r="646" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:7">
       <c r="C646" s="25"/>
       <c r="D646" s="25"/>
       <c r="G646" s="25"/>
     </row>
-    <row r="647" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:7">
       <c r="C647" s="25"/>
       <c r="D647" s="25"/>
       <c r="G647" s="25"/>
     </row>
-    <row r="648" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:7">
       <c r="C648" s="25"/>
       <c r="D648" s="25"/>
       <c r="G648" s="25"/>
     </row>
-    <row r="649" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:7">
       <c r="C649" s="25"/>
       <c r="D649" s="25"/>
       <c r="G649" s="25"/>
     </row>
-    <row r="650" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:7">
       <c r="C650" s="25"/>
       <c r="D650" s="25"/>
       <c r="G650" s="25"/>
     </row>
-    <row r="651" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:7">
       <c r="C651" s="25"/>
       <c r="D651" s="25"/>
       <c r="G651" s="25"/>
     </row>
-    <row r="652" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:7">
       <c r="C652" s="27"/>
       <c r="D652" s="27"/>
       <c r="G652" s="27"/>
     </row>
-    <row r="653" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:7">
       <c r="C653" s="27"/>
       <c r="D653" s="27"/>
       <c r="G653" s="27"/>
     </row>
-    <row r="654" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:7">
       <c r="C654" s="27"/>
       <c r="D654" s="27"/>
       <c r="G654" s="27"/>
     </row>
-    <row r="655" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:7">
       <c r="C655" s="27"/>
       <c r="D655" s="27"/>
       <c r="G655" s="27"/>
     </row>
-    <row r="656" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:7">
       <c r="C656" s="29"/>
       <c r="D656" s="29"/>
       <c r="G656" s="29"/>
     </row>
-    <row r="657" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:7">
       <c r="C657" s="31"/>
       <c r="D657" s="31"/>
       <c r="G657" s="31"/>
     </row>
-    <row r="658" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:7">
       <c r="C658" s="31"/>
       <c r="D658" s="31"/>
       <c r="G658" s="31"/>
     </row>
-    <row r="659" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:7">
       <c r="C659" s="31"/>
       <c r="D659" s="31"/>
       <c r="G659" s="31"/>
     </row>
-    <row r="660" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:7">
       <c r="C660" s="31"/>
       <c r="D660" s="31"/>
       <c r="G660" s="31"/>
     </row>
-    <row r="661" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:7">
       <c r="C661" s="31"/>
       <c r="D661" s="31"/>
       <c r="G661" s="31"/>
     </row>
-    <row r="662" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:7">
       <c r="C662" s="7"/>
       <c r="D662" s="7"/>
       <c r="G662" s="7"/>
     </row>
-    <row r="663" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:7">
       <c r="C663" s="7"/>
       <c r="D663" s="7"/>
       <c r="G663" s="7"/>
     </row>
-    <row r="664" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:7">
       <c r="C664" s="30"/>
       <c r="D664" s="30"/>
       <c r="G664" s="31"/>
     </row>
-    <row r="665" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:7">
       <c r="C665" s="30"/>
       <c r="D665" s="30"/>
       <c r="G665" s="31"/>
     </row>
-    <row r="666" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:7">
       <c r="C666" s="30"/>
       <c r="D666" s="30"/>
       <c r="G666" s="31"/>
     </row>
-    <row r="667" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:7">
       <c r="C667" s="7"/>
       <c r="D667" s="7"/>
       <c r="G667" s="7"/>
     </row>
-    <row r="668" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:7">
       <c r="C668" s="7"/>
       <c r="D668" s="7"/>
       <c r="G668" s="7"/>
     </row>
-    <row r="669" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:7">
       <c r="C669" s="7"/>
       <c r="D669" s="7"/>
       <c r="G669" s="7"/>
     </row>
-    <row r="670" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:7">
       <c r="C670" s="9"/>
       <c r="D670" s="9"/>
       <c r="G670" s="10"/>
     </row>
-    <row r="671" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:7">
       <c r="C671" s="9"/>
       <c r="D671" s="9"/>
       <c r="G671" s="10"/>
     </row>
-    <row r="672" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:7">
       <c r="C672" s="9"/>
       <c r="D672" s="9"/>
       <c r="G672" s="10"/>
     </row>
-    <row r="673" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:7">
       <c r="C673" s="9"/>
       <c r="D673" s="9"/>
       <c r="G673" s="10"/>
     </row>
-    <row r="674" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:7">
       <c r="C674" s="13"/>
       <c r="D674" s="13"/>
       <c r="G674" s="13"/>
     </row>
-    <row r="675" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:7">
       <c r="C675" s="14"/>
       <c r="D675" s="14"/>
       <c r="G675" s="15"/>
     </row>
-    <row r="676" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:7">
       <c r="C676" s="16"/>
       <c r="D676" s="17"/>
       <c r="G676" s="17"/>
     </row>
-    <row r="677" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:7">
       <c r="C677" s="19"/>
       <c r="D677" s="19"/>
       <c r="G677" s="19"/>
     </row>
-    <row r="678" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:7">
       <c r="C678" s="21"/>
       <c r="D678" s="21"/>
       <c r="G678" s="21"/>
     </row>
-    <row r="679" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:7">
       <c r="C679" s="21"/>
       <c r="D679" s="21"/>
       <c r="G679" s="21"/>
     </row>
-    <row r="680" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:7">
       <c r="C680" s="21"/>
       <c r="D680" s="21"/>
       <c r="G680" s="21"/>
     </row>
-    <row r="681" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:7">
       <c r="C681" s="21"/>
       <c r="D681" s="21"/>
       <c r="G681" s="21"/>
     </row>
-    <row r="682" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:7">
       <c r="C682" s="23"/>
       <c r="D682" s="23"/>
       <c r="G682" s="23"/>
     </row>
-    <row r="683" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:7">
       <c r="C683" s="23"/>
       <c r="D683" s="23"/>
       <c r="G683" s="23"/>
     </row>
-    <row r="684" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:7">
       <c r="C684" s="23"/>
       <c r="D684" s="23"/>
       <c r="G684" s="23"/>
     </row>
-    <row r="685" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:7">
       <c r="C685" s="23"/>
       <c r="D685" s="23"/>
       <c r="G685" s="23"/>
     </row>
-    <row r="686" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:7">
       <c r="C686" s="25"/>
       <c r="D686" s="25"/>
       <c r="G686" s="25"/>
     </row>
-    <row r="687" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:7">
       <c r="C687" s="25"/>
       <c r="D687" s="25"/>
       <c r="G687" s="25"/>
     </row>
-    <row r="688" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:7">
       <c r="C688" s="25"/>
       <c r="D688" s="25"/>
       <c r="G688" s="25"/>
     </row>
-    <row r="689" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:7">
       <c r="C689" s="25"/>
       <c r="D689" s="25"/>
       <c r="G689" s="25"/>
     </row>
-    <row r="690" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:7">
       <c r="C690" s="25"/>
       <c r="D690" s="25"/>
       <c r="G690" s="25"/>
     </row>
-    <row r="691" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:7">
       <c r="C691" s="25"/>
       <c r="D691" s="25"/>
       <c r="G691" s="25"/>
     </row>
-    <row r="692" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:7">
       <c r="C692" s="25"/>
       <c r="D692" s="25"/>
       <c r="G692" s="25"/>
     </row>
-    <row r="693" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:7">
       <c r="C693" s="25"/>
       <c r="D693" s="25"/>
       <c r="G693" s="25"/>
     </row>
-    <row r="694" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:7">
       <c r="C694" s="27"/>
       <c r="D694" s="27"/>
       <c r="G694" s="27"/>
     </row>
-    <row r="695" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:7">
       <c r="C695" s="27"/>
       <c r="D695" s="27"/>
       <c r="G695" s="27"/>
     </row>
-    <row r="696" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:7">
       <c r="C696" s="27"/>
       <c r="D696" s="27"/>
       <c r="G696" s="27"/>
     </row>
-    <row r="697" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:7">
       <c r="C697" s="27"/>
       <c r="D697" s="27"/>
       <c r="G697" s="27"/>
     </row>
-    <row r="698" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:7">
       <c r="C698" s="29"/>
       <c r="D698" s="29"/>
       <c r="G698" s="29"/>
     </row>
-    <row r="699" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:7">
       <c r="C699" s="31"/>
       <c r="D699" s="31"/>
       <c r="G699" s="31"/>
     </row>
-    <row r="700" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:7">
       <c r="C700" s="31"/>
       <c r="D700" s="31"/>
       <c r="G700" s="31"/>
     </row>
-    <row r="701" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:7">
       <c r="C701" s="31"/>
       <c r="D701" s="31"/>
       <c r="G701" s="31"/>
     </row>
-    <row r="702" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:7">
       <c r="C702" s="31"/>
       <c r="D702" s="31"/>
       <c r="G702" s="31"/>
     </row>
-    <row r="703" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:7">
       <c r="C703" s="31"/>
       <c r="D703" s="31"/>
       <c r="G703" s="31"/>
     </row>
-    <row r="704" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:7">
       <c r="C704" s="7"/>
       <c r="D704" s="7"/>
       <c r="G704" s="7"/>
     </row>
-    <row r="705" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:7">
       <c r="C705" s="7"/>
       <c r="D705" s="7"/>
       <c r="G705" s="7"/>
     </row>
-    <row r="706" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:7">
       <c r="C706" s="9"/>
       <c r="D706" s="9"/>
       <c r="G706" s="10"/>
     </row>
-    <row r="707" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:7">
       <c r="C707" s="9"/>
       <c r="D707" s="9"/>
       <c r="G707" s="10"/>
     </row>
-    <row r="708" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:7">
       <c r="C708" s="9"/>
       <c r="D708" s="9"/>
       <c r="G708" s="10"/>
     </row>
-    <row r="709" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:7">
       <c r="C709" s="9"/>
       <c r="D709" s="9"/>
       <c r="G709" s="10"/>
     </row>
-    <row r="710" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:7">
       <c r="C710" s="13"/>
       <c r="D710" s="13"/>
       <c r="G710" s="13"/>
     </row>
-    <row r="711" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:7">
       <c r="C711" s="15"/>
       <c r="D711" s="15"/>
       <c r="G711" s="15"/>
     </row>
-    <row r="712" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:7">
       <c r="C712" s="17"/>
       <c r="D712" s="17"/>
       <c r="G712" s="17"/>
     </row>
-    <row r="713" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:7">
       <c r="C713" s="19"/>
       <c r="D713" s="19"/>
       <c r="G713" s="19"/>
     </row>
-    <row r="714" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:7">
       <c r="C714" s="21"/>
       <c r="D714" s="21"/>
       <c r="G714" s="21"/>
     </row>
-    <row r="715" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:7">
       <c r="C715" s="21"/>
       <c r="D715" s="21"/>
       <c r="G715" s="21"/>
     </row>
-    <row r="716" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:7">
       <c r="C716" s="20"/>
       <c r="D716" s="20"/>
       <c r="G716" s="21"/>
     </row>
-    <row r="717" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:7">
       <c r="C717" s="20"/>
       <c r="D717" s="20"/>
       <c r="G717" s="21"/>
     </row>
-    <row r="718" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:7">
       <c r="C718" s="23"/>
       <c r="D718" s="23"/>
       <c r="G718" s="23"/>
     </row>
-    <row r="719" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:7">
       <c r="C719" s="23"/>
       <c r="D719" s="23"/>
       <c r="G719" s="23"/>
     </row>
-    <row r="720" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:7">
       <c r="C720" s="23"/>
       <c r="D720" s="23"/>
       <c r="G720" s="23"/>
     </row>
-    <row r="721" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:7">
       <c r="C721" s="23"/>
       <c r="D721" s="23"/>
       <c r="G721" s="23"/>
     </row>
-    <row r="722" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:7">
       <c r="C722" s="25"/>
       <c r="D722" s="25"/>
       <c r="G722" s="25"/>
     </row>
-    <row r="723" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:7">
       <c r="C723" s="25"/>
       <c r="D723" s="25"/>
       <c r="G723" s="25"/>
     </row>
-    <row r="724" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:7">
       <c r="C724" s="25"/>
       <c r="D724" s="25"/>
       <c r="G724" s="25"/>
     </row>
-    <row r="725" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:7">
       <c r="C725" s="25"/>
       <c r="D725" s="25"/>
       <c r="G725" s="25"/>
     </row>
-    <row r="726" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:7">
       <c r="C726" s="25"/>
       <c r="D726" s="25"/>
       <c r="G726" s="25"/>
     </row>
-    <row r="727" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:7">
       <c r="C727" s="25"/>
       <c r="D727" s="25"/>
       <c r="G727" s="25"/>
     </row>
-    <row r="728" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:7">
       <c r="C728" s="25"/>
       <c r="D728" s="25"/>
       <c r="G728" s="25"/>
     </row>
-    <row r="729" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:7">
       <c r="C729" s="25"/>
       <c r="D729" s="25"/>
       <c r="G729" s="25"/>
     </row>
-    <row r="730" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:7">
       <c r="C730" s="27"/>
       <c r="D730" s="27"/>
       <c r="G730" s="27"/>
     </row>
-    <row r="731" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:7">
       <c r="C731" s="27"/>
       <c r="D731" s="27"/>
       <c r="G731" s="27"/>
     </row>
-    <row r="732" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:7">
       <c r="C732" s="27"/>
       <c r="D732" s="27"/>
       <c r="G732" s="27"/>
     </row>
-    <row r="733" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:7">
       <c r="C733" s="27"/>
       <c r="D733" s="27"/>
       <c r="G733" s="27"/>
     </row>
-    <row r="734" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:7">
       <c r="C734" s="28"/>
       <c r="D734" s="28"/>
       <c r="G734" s="29"/>
     </row>
-    <row r="735" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:7">
       <c r="C735" s="30"/>
       <c r="D735" s="30"/>
       <c r="G735" s="31"/>
     </row>
-    <row r="736" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:7">
       <c r="C736" s="30"/>
       <c r="D736" s="30"/>
       <c r="G736" s="31"/>
     </row>
-    <row r="737" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:7">
       <c r="C737" s="30"/>
       <c r="D737" s="30"/>
       <c r="G737" s="31"/>
     </row>
-    <row r="738" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:7">
       <c r="C738" s="30"/>
       <c r="D738" s="30"/>
       <c r="G738" s="31"/>
     </row>
-    <row r="739" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:7">
       <c r="C739" s="30"/>
       <c r="D739" s="30"/>
       <c r="G739" s="31"/>
     </row>
-    <row r="740" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:7">
       <c r="C740" s="8"/>
       <c r="D740" s="8"/>
       <c r="G740" s="7"/>
     </row>
-    <row r="741" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:7">
       <c r="C741" s="30"/>
       <c r="D741" s="30"/>
       <c r="G741" s="31"/>
     </row>
-    <row r="742" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:7">
       <c r="C742" s="30"/>
       <c r="D742" s="30"/>
       <c r="G742" s="31"/>
     </row>
-    <row r="743" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:7">
       <c r="C743" s="30"/>
       <c r="D743" s="30"/>
       <c r="G743" s="31"/>
     </row>
-    <row r="744" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:7">
       <c r="C744" s="8"/>
       <c r="D744" s="8"/>
       <c r="G744" s="7"/>
     </row>
-    <row r="745" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:7">
       <c r="C745" s="9"/>
       <c r="D745" s="9"/>
       <c r="G745" s="10"/>
     </row>
-    <row r="746" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:7">
       <c r="C746" s="9"/>
       <c r="D746" s="9"/>
       <c r="G746" s="10"/>
     </row>
-    <row r="747" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:7">
       <c r="C747" s="9"/>
       <c r="D747" s="9"/>
       <c r="G747" s="10"/>
     </row>
-    <row r="748" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:7">
       <c r="C748" s="9"/>
       <c r="D748" s="9"/>
       <c r="G748" s="10"/>
     </row>
-    <row r="749" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:7">
       <c r="C749" s="12"/>
       <c r="D749" s="12"/>
       <c r="G749" s="13"/>
     </row>
-    <row r="750" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:7">
       <c r="C750" s="14"/>
       <c r="D750" s="14"/>
       <c r="G750" s="15"/>
     </row>
-    <row r="751" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:7">
       <c r="C751" s="16"/>
       <c r="D751" s="16"/>
       <c r="G751" s="17"/>
     </row>
-    <row r="752" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:7">
       <c r="C752" s="18"/>
       <c r="D752" s="18"/>
       <c r="G752" s="19"/>
     </row>
-    <row r="753" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:7">
       <c r="C753" s="20"/>
       <c r="D753" s="20"/>
       <c r="G753" s="21"/>
     </row>
-    <row r="754" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:7">
       <c r="C754" s="20"/>
       <c r="D754" s="20"/>
       <c r="G754" s="21"/>
     </row>
-    <row r="755" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:7">
       <c r="C755" s="20"/>
       <c r="D755" s="20"/>
       <c r="G755" s="21"/>
     </row>
-    <row r="756" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:7">
       <c r="C756" s="20"/>
       <c r="D756" s="20"/>
       <c r="G756" s="21"/>
     </row>
-    <row r="757" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:7">
       <c r="C757" s="22"/>
       <c r="D757" s="22"/>
       <c r="G757" s="23"/>
     </row>
-    <row r="758" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:7">
       <c r="C758" s="22"/>
       <c r="D758" s="22"/>
       <c r="G758" s="23"/>
     </row>
-    <row r="759" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:7">
       <c r="C759" s="22"/>
       <c r="D759" s="22"/>
       <c r="G759" s="23"/>
     </row>
-    <row r="760" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:7">
       <c r="C760" s="22"/>
       <c r="D760" s="22"/>
       <c r="G760" s="23"/>
     </row>
-    <row r="761" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:7">
       <c r="C761" s="24"/>
       <c r="D761" s="24"/>
       <c r="G761" s="25"/>
     </row>
-    <row r="762" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:7">
       <c r="C762" s="24"/>
       <c r="D762" s="24"/>
       <c r="G762" s="25"/>
     </row>
-    <row r="763" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:7">
       <c r="C763" s="24"/>
       <c r="D763" s="24"/>
       <c r="G763" s="25"/>
     </row>
-    <row r="764" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:7">
       <c r="C764" s="24"/>
       <c r="D764" s="24"/>
       <c r="G764" s="25"/>
     </row>
-    <row r="765" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:7">
       <c r="C765" s="24"/>
       <c r="D765" s="24"/>
       <c r="G765" s="25"/>
     </row>
-    <row r="766" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:7">
       <c r="C766" s="24"/>
       <c r="D766" s="24"/>
       <c r="G766" s="25"/>
     </row>
-    <row r="767" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:7">
       <c r="C767" s="24"/>
       <c r="D767" s="24"/>
       <c r="G767" s="25"/>
     </row>
-    <row r="768" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:7">
       <c r="C768" s="24"/>
       <c r="D768" s="24"/>
       <c r="G768" s="25"/>
     </row>
-    <row r="769" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:7">
       <c r="C769" s="26"/>
       <c r="D769" s="26"/>
       <c r="G769" s="27"/>
     </row>
-    <row r="770" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:7">
       <c r="C770" s="26"/>
       <c r="D770" s="26"/>
       <c r="G770" s="27"/>
     </row>
-    <row r="771" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:7">
       <c r="C771" s="26"/>
       <c r="D771" s="26"/>
       <c r="G771" s="27"/>
     </row>
-    <row r="772" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:7">
       <c r="C772" s="26"/>
       <c r="D772" s="26"/>
       <c r="G772" s="27"/>
     </row>
-    <row r="773" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:7">
       <c r="C773" s="28"/>
       <c r="D773" s="28"/>
       <c r="G773" s="29"/>
     </row>
-    <row r="774" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:7">
       <c r="C774" s="30"/>
       <c r="D774" s="30"/>
       <c r="G774" s="31"/>
     </row>
-    <row r="775" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:7">
       <c r="C775" s="30"/>
       <c r="D775" s="30"/>
       <c r="G775" s="31"/>
     </row>
-    <row r="776" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:7">
       <c r="C776" s="30"/>
       <c r="D776" s="30"/>
       <c r="G776" s="31"/>
     </row>
-    <row r="777" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:7">
       <c r="C777" s="30"/>
       <c r="D777" s="30"/>
       <c r="G777" s="31"/>
     </row>
-    <row r="778" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:7">
       <c r="C778" s="30"/>
       <c r="D778" s="30"/>
       <c r="G778" s="31"/>
     </row>
-    <row r="779" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:7">
       <c r="C779" s="30"/>
       <c r="D779" s="30"/>
       <c r="G779" s="31"/>
     </row>
-    <row r="780" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:7">
       <c r="C780" s="30"/>
       <c r="D780" s="30"/>
       <c r="G780" s="31"/>
     </row>
-    <row r="781" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:7">
       <c r="C781" s="30"/>
       <c r="D781" s="30"/>
       <c r="G781" s="31"/>
     </row>
-    <row r="782" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:7">
       <c r="C782" s="31"/>
       <c r="D782" s="31"/>
       <c r="G782" s="30"/>
     </row>
-    <row r="783" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:7">
       <c r="C783" s="31"/>
       <c r="D783" s="31"/>
       <c r="G783" s="30"/>
     </row>
-    <row r="784" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:7">
       <c r="C784" s="31"/>
       <c r="D784" s="31"/>
       <c r="G784" s="30"/>
     </row>
-    <row r="785" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:7">
       <c r="C785" s="31"/>
       <c r="D785" s="31"/>
       <c r="G785" s="30"/>
     </row>
-    <row r="786" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:7">
       <c r="C786" s="31"/>
       <c r="D786" s="31"/>
       <c r="G786" s="30"/>
     </row>
-    <row r="787" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:7">
       <c r="C787" s="31"/>
       <c r="D787" s="31"/>
       <c r="G787" s="30"/>
     </row>
-    <row r="788" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:7">
       <c r="C788" s="31"/>
       <c r="D788" s="31"/>
       <c r="G788" s="30"/>
     </row>
-    <row r="789" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:7">
       <c r="C789" s="31"/>
       <c r="D789" s="31"/>
       <c r="G789" s="30"/>
     </row>
-    <row r="790" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:7">
       <c r="C790" s="31"/>
       <c r="D790" s="31"/>
       <c r="G790" s="30"/>
     </row>
-    <row r="791" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:7">
       <c r="C791" s="31"/>
       <c r="D791" s="31"/>
       <c r="G791" s="30"/>
     </row>
-    <row r="792" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:7">
       <c r="C792" s="31"/>
       <c r="D792" s="31"/>
       <c r="G792" s="30"/>
     </row>
-    <row r="793" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:7">
       <c r="C793" s="31"/>
       <c r="D793" s="31"/>
       <c r="G793" s="30"/>
     </row>
-    <row r="794" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:7">
       <c r="C794" s="31"/>
       <c r="D794" s="31"/>
       <c r="G794" s="31"/>
     </row>
-    <row r="795" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:7">
       <c r="C795" s="31"/>
       <c r="D795" s="31"/>
       <c r="G795" s="31"/>
     </row>
-    <row r="796" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:7">
       <c r="C796" s="31"/>
       <c r="D796" s="31"/>
       <c r="G796" s="31"/>
     </row>
-    <row r="797" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:7">
       <c r="C797" s="31"/>
       <c r="D797" s="31"/>
       <c r="G797" s="30"/>
     </row>
-    <row r="798" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:7">
       <c r="C798" s="31"/>
       <c r="D798" s="31"/>
       <c r="G798" s="30"/>
     </row>
-    <row r="799" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:7">
       <c r="C799" s="31"/>
       <c r="D799" s="31"/>
       <c r="G799" s="30"/>
     </row>
-    <row r="800" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:7">
       <c r="C800" s="30"/>
       <c r="D800" s="30"/>
       <c r="G800" s="31"/>
     </row>
-    <row r="801" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:7">
       <c r="C801" s="30"/>
       <c r="D801" s="30"/>
       <c r="G801" s="31"/>
     </row>
-    <row r="802" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:7">
       <c r="C802" s="30"/>
       <c r="D802" s="30"/>
       <c r="G802" s="31"/>
     </row>
-    <row r="803" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:7">
       <c r="C803" s="31"/>
       <c r="D803" s="31"/>
       <c r="G803" s="30"/>
     </row>
-    <row r="804" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:7">
       <c r="C804" s="31"/>
       <c r="D804" s="31"/>
       <c r="G804" s="30"/>
     </row>
-    <row r="805" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:7">
       <c r="C805" s="31"/>
       <c r="D805" s="31"/>
       <c r="G805" s="30"/>
     </row>
-    <row r="806" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:7">
       <c r="C806" s="31"/>
       <c r="D806" s="31"/>
       <c r="G806" s="30"/>
     </row>
-    <row r="807" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:7">
       <c r="C807" s="31"/>
       <c r="D807" s="31"/>
       <c r="G807" s="30"/>
     </row>
-    <row r="808" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:7">
       <c r="C808" s="31"/>
       <c r="D808" s="31"/>
       <c r="G808" s="30"/>
     </row>
-    <row r="809" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:7">
       <c r="C809" s="30"/>
       <c r="D809" s="30"/>
       <c r="G809" s="31"/>
     </row>
-    <row r="810" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:7">
       <c r="C810" s="30"/>
       <c r="D810" s="30"/>
       <c r="G810" s="31"/>
     </row>
-    <row r="811" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:7">
       <c r="C811" s="30"/>
       <c r="D811" s="30"/>
       <c r="G811" s="31"/>
     </row>
-    <row r="812" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:7">
       <c r="C812" s="30"/>
       <c r="D812" s="30"/>
       <c r="G812" s="31"/>
     </row>
-    <row r="813" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:7">
       <c r="C813" s="30"/>
       <c r="D813" s="30"/>
       <c r="G813" s="31"/>
     </row>
-    <row r="814" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:7">
       <c r="C814" s="30"/>
       <c r="D814" s="30"/>
       <c r="G814" s="31"/>
     </row>
-    <row r="815" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:7">
       <c r="C815" s="30"/>
       <c r="D815" s="30"/>
       <c r="G815" s="31"/>
     </row>
-    <row r="816" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:7">
       <c r="C816" s="30"/>
       <c r="D816" s="30"/>
       <c r="G816" s="31"/>
     </row>
-    <row r="817" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:7">
       <c r="C817" s="30"/>
       <c r="D817" s="30"/>
       <c r="G817" s="31"/>
     </row>
-    <row r="818" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:7">
       <c r="C818" s="30"/>
       <c r="D818" s="30"/>
       <c r="G818" s="31"/>
     </row>
-    <row r="819" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:7">
       <c r="C819" s="30"/>
       <c r="D819" s="30"/>
       <c r="G819" s="31"/>
     </row>
-    <row r="820" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:7">
       <c r="C820" s="30"/>
       <c r="D820" s="30"/>
       <c r="G820" s="31"/>
     </row>
-    <row r="821" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:7">
       <c r="C821" s="30"/>
       <c r="D821" s="30"/>
       <c r="G821" s="31"/>
     </row>
-    <row r="822" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:7">
       <c r="C822" s="30"/>
       <c r="D822" s="30"/>
       <c r="G822" s="31"/>
     </row>
-    <row r="823" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:7">
       <c r="C823" s="30"/>
       <c r="D823" s="30"/>
       <c r="G823" s="31"/>
     </row>
-    <row r="824" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:7">
       <c r="C824" s="30"/>
       <c r="D824" s="30"/>
       <c r="G824" s="31"/>
     </row>
-    <row r="825" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:7">
       <c r="C825" s="30"/>
       <c r="D825" s="30"/>
       <c r="G825" s="31"/>
     </row>
-    <row r="826" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:7">
       <c r="C826" s="30"/>
       <c r="D826" s="30"/>
       <c r="G826" s="31"/>
     </row>
-    <row r="827" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:7">
       <c r="C827" s="31"/>
       <c r="D827" s="31"/>
       <c r="G827" s="31"/>
     </row>
-    <row r="828" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:7">
       <c r="C828" s="31"/>
       <c r="D828" s="31"/>
       <c r="G828" s="31"/>
     </row>
-    <row r="829" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:7">
       <c r="C829" s="31"/>
       <c r="D829" s="31"/>
       <c r="G829" s="31"/>
     </row>
-    <row r="830" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:7">
       <c r="C830" s="31"/>
       <c r="D830" s="31"/>
       <c r="G830" s="31"/>
     </row>
-    <row r="831" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:7">
       <c r="C831" s="31"/>
       <c r="D831" s="31"/>
       <c r="G831" s="31"/>
     </row>
-    <row r="832" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:7">
       <c r="C832" s="31"/>
       <c r="D832" s="31"/>
       <c r="G832" s="31"/>
     </row>
-    <row r="833" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:7">
       <c r="C833" s="31"/>
       <c r="D833" s="31"/>
       <c r="G833" s="30"/>
     </row>
-    <row r="834" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:7">
       <c r="C834" s="31"/>
       <c r="D834" s="31"/>
       <c r="G834" s="30"/>
     </row>
-    <row r="835" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:7">
       <c r="C835" s="31"/>
       <c r="D835" s="31"/>
       <c r="G835" s="30"/>
     </row>
-    <row r="836" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:7">
       <c r="C836" s="30"/>
       <c r="D836" s="30"/>
       <c r="G836" s="31"/>
     </row>
-    <row r="837" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:7">
       <c r="C837" s="30"/>
       <c r="D837" s="30"/>
       <c r="G837" s="31"/>
     </row>
-    <row r="838" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:7">
       <c r="C838" s="30"/>
       <c r="D838" s="30"/>
       <c r="G838" s="31"/>
     </row>
-    <row r="839" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:7">
       <c r="C839" s="30"/>
       <c r="D839" s="30"/>
       <c r="G839" s="31"/>
     </row>
-    <row r="840" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:7">
       <c r="C840" s="30"/>
       <c r="D840" s="30"/>
       <c r="G840" s="31"/>
     </row>
-    <row r="841" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:7">
       <c r="C841" s="30"/>
       <c r="D841" s="30"/>
       <c r="G841" s="31"/>
     </row>
-    <row r="842" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:7">
       <c r="C842" s="6"/>
       <c r="D842" s="6"/>
       <c r="G842" s="6"/>
     </row>
-    <row r="843" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:7">
       <c r="C843" s="6"/>
       <c r="D843" s="6"/>
       <c r="G843" s="5"/>
     </row>
-    <row r="844" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:7">
       <c r="C844" s="5"/>
       <c r="D844" s="5"/>
       <c r="G844" s="6"/>
     </row>
-    <row r="845" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:7">
       <c r="C845" s="1"/>
       <c r="D845" s="1"/>
       <c r="G845" s="2"/>
     </row>
-    <row r="846" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:7">
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
       <c r="G846" s="2"/>
     </row>
-    <row r="847" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:7">
       <c r="C847" s="1"/>
       <c r="D847" s="1"/>
       <c r="G847" s="2"/>
     </row>
-    <row r="848" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:7">
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
       <c r="G848" s="2"/>
     </row>
-    <row r="849" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:7">
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
       <c r="G849" s="2"/>
     </row>
-    <row r="850" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:7">
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
       <c r="G850" s="2"/>
     </row>
-    <row r="851" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:7">
       <c r="C851" s="1"/>
       <c r="D851" s="1"/>
       <c r="G851" s="2"/>
     </row>
-    <row r="852" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:7">
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
       <c r="G852" s="4"/>
     </row>
-    <row r="853" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:7">
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
       <c r="G853" s="4"/>
     </row>
-    <row r="854" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:7">
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
       <c r="G854" s="3"/>
     </row>
-    <row r="855" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:7">
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
       <c r="G855" s="3"/>
     </row>
-    <row r="856" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:7">
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
       <c r="G856" s="4"/>
     </row>
-    <row r="857" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:7">
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
       <c r="G857" s="4"/>
     </row>
-    <row r="858" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:7">
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
       <c r="G858" s="4"/>
     </row>
-    <row r="859" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:7">
       <c r="C859" s="3"/>
       <c r="D859" s="3"/>
       <c r="G859" s="3"/>
     </row>
-    <row r="860" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:7">
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
       <c r="G860" s="3"/>
     </row>
-    <row r="861" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:7">
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
       <c r="G861" s="3"/>
     </row>
-    <row r="862" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:7">
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
       <c r="G862" s="4"/>
     </row>
-    <row r="863" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:7">
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
       <c r="G863" s="3"/>
     </row>
-    <row r="864" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:7">
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
       <c r="G864" s="4"/>
     </row>
-    <row r="865" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:7">
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
       <c r="G865" s="4"/>
     </row>
-    <row r="866" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:7">
       <c r="C866" s="3"/>
       <c r="D866" s="3"/>
       <c r="G866" s="4"/>
     </row>
-    <row r="867" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:7">
       <c r="C867" s="3"/>
       <c r="D867" s="3"/>
       <c r="G867" s="4"/>
     </row>
-    <row r="868" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:7">
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
       <c r="G868" s="3"/>
     </row>
-    <row r="869" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:7">
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
       <c r="G869" s="4"/>
     </row>
-    <row r="870" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:7">
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
       <c r="G870" s="4"/>
     </row>
-    <row r="871" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:7">
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
       <c r="G871" s="3"/>
     </row>
-    <row r="872" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:7">
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
       <c r="G872" s="3"/>
     </row>
-    <row r="873" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:7">
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
       <c r="G873" s="4"/>
     </row>
-    <row r="874" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:7">
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
       <c r="G874" s="4"/>
     </row>
-    <row r="875" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:7">
       <c r="C875" s="3"/>
       <c r="D875" s="3"/>
       <c r="G875" s="4"/>
     </row>
-    <row r="876" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:7">
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
       <c r="G876" s="4"/>
     </row>
-    <row r="877" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:7">
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
       <c r="G877" s="4"/>
     </row>
-    <row r="878" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:7">
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
       <c r="G878" s="3"/>
     </row>
-    <row r="879" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:7">
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
       <c r="G879" s="4"/>
     </row>
-    <row r="880" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:7">
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
       <c r="G880" s="3"/>
     </row>
-    <row r="881" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:7">
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
       <c r="G881" s="4"/>
     </row>
-    <row r="882" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:7">
       <c r="C882" s="7"/>
       <c r="D882" s="7"/>
       <c r="G882" s="7"/>
     </row>
-    <row r="883" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:7">
       <c r="C883" s="7"/>
       <c r="D883" s="7"/>
       <c r="G883" s="7"/>
     </row>
-    <row r="884" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:7">
       <c r="C884" s="7"/>
       <c r="D884" s="7"/>
       <c r="G884" s="7"/>
     </row>
-    <row r="885" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:7">
       <c r="C885" s="7"/>
       <c r="D885" s="7"/>
       <c r="G885" s="7"/>
     </row>
-    <row r="886" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:7">
       <c r="C886" s="7"/>
       <c r="D886" s="7"/>
       <c r="G886" s="7"/>
@@ -6048,7 +6044,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6060,7 +6056,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6072,7 +6068,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6084,7 +6080,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6094,9 +6090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6110,9 +6108,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="11"/>
       <c r="B2" s="94"/>
       <c r="C2" s="97"/>
@@ -6138,7 +6136,7 @@
       <c r="W2" s="69"/>
       <c r="X2" s="71"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="11"/>
       <c r="B3" s="94"/>
       <c r="C3" s="97"/>
@@ -6164,7 +6162,7 @@
       <c r="W3" s="69"/>
       <c r="X3" s="71"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="B4" s="94"/>
       <c r="C4" s="97"/>
       <c r="D4" s="99"/>
@@ -6189,7 +6187,7 @@
       <c r="W4" s="69"/>
       <c r="X4" s="70"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="11"/>
       <c r="B5" s="94"/>
       <c r="C5" s="97"/>
@@ -6215,7 +6213,7 @@
       <c r="W5" s="69"/>
       <c r="X5" s="71"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="B6" s="94"/>
       <c r="C6" s="97"/>
       <c r="D6" s="99"/>
@@ -6240,7 +6238,7 @@
       <c r="W6" s="69"/>
       <c r="X6" s="71"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="B7" s="94"/>
       <c r="C7" s="97"/>
       <c r="D7" s="99"/>
@@ -6265,7 +6263,7 @@
       <c r="W7" s="69"/>
       <c r="X7" s="70"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="B8" s="94"/>
       <c r="C8" s="96"/>
       <c r="D8" s="100"/>
@@ -6290,7 +6288,7 @@
       <c r="W8" s="68"/>
       <c r="X8" s="70"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="B9" s="94"/>
       <c r="C9" s="97"/>
       <c r="D9" s="100"/>
@@ -6315,7 +6313,7 @@
       <c r="W9" s="69"/>
       <c r="X9" s="71"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="B10" s="94"/>
       <c r="C10" s="97"/>
       <c r="D10" s="99"/>
@@ -6340,7 +6338,7 @@
       <c r="W10" s="69"/>
       <c r="X10" s="71"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="B11" s="94"/>
       <c r="C11" s="97"/>
       <c r="D11" s="99"/>
@@ -6365,7 +6363,7 @@
       <c r="W11" s="69"/>
       <c r="X11" s="71"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="B12" s="94"/>
       <c r="C12" s="96"/>
       <c r="D12" s="99"/>
@@ -6390,7 +6388,7 @@
       <c r="W12" s="68"/>
       <c r="X12" s="70"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="B13" s="94"/>
       <c r="C13" s="97"/>
       <c r="D13" s="100"/>
@@ -6415,7 +6413,7 @@
       <c r="W13" s="69"/>
       <c r="X13" s="71"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="B14" s="94"/>
       <c r="C14" s="97"/>
       <c r="D14" s="99"/>
@@ -6440,7 +6438,7 @@
       <c r="W14" s="69"/>
       <c r="X14" s="71"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="B15" s="94"/>
       <c r="C15" s="96"/>
       <c r="D15" s="100"/>
@@ -6465,7 +6463,7 @@
       <c r="W15" s="69"/>
       <c r="X15" s="71"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="B16" s="94"/>
       <c r="C16" s="97"/>
       <c r="D16" s="99"/>
@@ -6490,7 +6488,7 @@
       <c r="W16" s="68"/>
       <c r="X16" s="70"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24">
       <c r="B17" s="94"/>
       <c r="C17" s="97"/>
       <c r="D17" s="99"/>
@@ -6515,7 +6513,7 @@
       <c r="W17" s="68"/>
       <c r="X17" s="70"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24">
       <c r="B18" s="94"/>
       <c r="C18" s="97"/>
       <c r="D18" s="99"/>
@@ -6540,7 +6538,7 @@
       <c r="W18" s="69"/>
       <c r="X18" s="71"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24">
       <c r="B19" s="90"/>
       <c r="C19" s="96"/>
       <c r="D19" s="100"/>
@@ -6565,7 +6563,7 @@
       <c r="W19" s="69"/>
       <c r="X19" s="71"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24">
       <c r="B20" s="90"/>
       <c r="C20" s="97"/>
       <c r="D20" s="99"/>
@@ -6590,7 +6588,7 @@
       <c r="W20" s="68"/>
       <c r="X20" s="70"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24">
       <c r="B21" s="90"/>
       <c r="C21" s="96"/>
       <c r="D21" s="100"/>
@@ -6615,7 +6613,7 @@
       <c r="W21" s="69"/>
       <c r="X21" s="71"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24">
       <c r="B22" s="79"/>
       <c r="C22" s="96"/>
       <c r="D22" s="100"/>
@@ -6640,7 +6638,7 @@
       <c r="W22" s="68"/>
       <c r="X22" s="70"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24">
       <c r="B23" s="78"/>
       <c r="C23" s="97"/>
       <c r="D23" s="99"/>
@@ -6665,7 +6663,7 @@
       <c r="W23" s="68"/>
       <c r="X23" s="70"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24">
       <c r="B24" s="79"/>
       <c r="C24" s="97"/>
       <c r="D24" s="99"/>
@@ -6690,7 +6688,7 @@
       <c r="W24" s="69"/>
       <c r="X24" s="71"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24">
       <c r="B25" s="78"/>
       <c r="C25" s="97"/>
       <c r="D25" s="100"/>
@@ -6715,7 +6713,7 @@
       <c r="W25" s="69"/>
       <c r="X25" s="70"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24">
       <c r="B26" s="78"/>
       <c r="C26" s="97"/>
       <c r="D26" s="100"/>
@@ -6740,7 +6738,7 @@
       <c r="W26" s="69"/>
       <c r="X26" s="71"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24">
       <c r="B27" s="79"/>
       <c r="C27" s="97"/>
       <c r="D27" s="99"/>
@@ -6765,7 +6763,7 @@
       <c r="W27" s="69"/>
       <c r="X27" s="71"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24">
       <c r="B28" s="43"/>
       <c r="C28" s="96"/>
       <c r="D28" s="99"/>
@@ -6790,7 +6788,7 @@
       <c r="W28" s="69"/>
       <c r="X28" s="71"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24">
       <c r="B29" s="42"/>
       <c r="C29" s="97"/>
       <c r="D29" s="99"/>
@@ -6815,7 +6813,7 @@
       <c r="W29" s="68"/>
       <c r="X29" s="70"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24">
       <c r="C30" s="97"/>
       <c r="D30" s="99"/>
       <c r="E30" s="102"/>
@@ -6839,7 +6837,7 @@
       <c r="W30" s="69"/>
       <c r="X30" s="71"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24">
       <c r="C31" s="97"/>
       <c r="D31" s="99"/>
       <c r="E31" s="103"/>
@@ -6863,7 +6861,7 @@
       <c r="W31" s="69"/>
       <c r="X31" s="71"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24">
       <c r="C32" s="97"/>
       <c r="D32" s="99"/>
       <c r="E32" s="103"/>
@@ -6887,7 +6885,7 @@
       <c r="W32" s="69"/>
       <c r="X32" s="70"/>
     </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:24">
       <c r="C33" s="97"/>
       <c r="D33" s="99"/>
       <c r="E33" s="103"/>
@@ -6911,7 +6909,7 @@
       <c r="W33" s="68"/>
       <c r="X33" s="70"/>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:24">
       <c r="C34" s="96"/>
       <c r="D34" s="100"/>
       <c r="E34" s="102"/>
@@ -6935,7 +6933,7 @@
       <c r="W34" s="68"/>
       <c r="X34" s="70"/>
     </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:24">
       <c r="C35" s="86"/>
       <c r="D35" s="99"/>
       <c r="E35" s="103"/>
@@ -6959,7 +6957,7 @@
       <c r="W35" s="69"/>
       <c r="X35" s="71"/>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:24">
       <c r="C36" s="86"/>
       <c r="D36" s="100"/>
       <c r="E36" s="102"/>
@@ -6983,7 +6981,7 @@
       <c r="W36" s="69"/>
       <c r="X36" s="71"/>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:24">
       <c r="C37" s="86"/>
       <c r="D37" s="99"/>
       <c r="E37" s="103"/>
@@ -7007,7 +7005,7 @@
       <c r="W37" s="69"/>
       <c r="X37" s="71"/>
     </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:24">
       <c r="C38" s="86"/>
       <c r="D38" s="99"/>
       <c r="E38" s="103"/>
@@ -7031,7 +7029,7 @@
       <c r="W38" s="69"/>
       <c r="X38" s="71"/>
     </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:24">
       <c r="C39" s="86"/>
       <c r="D39" s="100"/>
       <c r="E39" s="102"/>
@@ -7046,7 +7044,7 @@
       <c r="W39" s="68"/>
       <c r="X39" s="70"/>
     </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:24">
       <c r="C40" s="85"/>
       <c r="D40" s="100"/>
       <c r="E40" s="102"/>
@@ -7055,7 +7053,7 @@
       <c r="Q40" s="41"/>
       <c r="R40" s="41"/>
     </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:24">
       <c r="C41" s="84"/>
       <c r="D41" s="100"/>
       <c r="E41" s="102"/>
@@ -7064,7 +7062,7 @@
       <c r="Q41" s="41"/>
       <c r="R41" s="41"/>
     </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:24">
       <c r="D42" s="100"/>
       <c r="E42" s="102"/>
       <c r="F42" s="105"/>
@@ -7072,78 +7070,78 @@
       <c r="Q42" s="41"/>
       <c r="R42" s="41"/>
     </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:24">
       <c r="D43" s="100"/>
       <c r="E43" s="102"/>
       <c r="F43" s="105"/>
       <c r="Q43" s="40"/>
       <c r="R43" s="40"/>
     </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:24">
       <c r="D44" s="100"/>
       <c r="E44" s="102"/>
       <c r="F44" s="105"/>
     </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:24">
       <c r="D45" s="100"/>
       <c r="E45" s="102"/>
       <c r="F45" s="105"/>
     </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:24">
       <c r="E46" s="102"/>
       <c r="F46" s="105"/>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:24">
       <c r="E47" s="102"/>
       <c r="F47" s="106"/>
     </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:24">
       <c r="E48" s="103"/>
       <c r="F48" s="105"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6">
       <c r="F49" s="105"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6">
       <c r="F50" s="105"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6">
       <c r="F51" s="105"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6">
       <c r="F52" s="106"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6">
       <c r="F53" s="105"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:6">
       <c r="F54" s="106"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6">
       <c r="F55" s="106"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:6">
       <c r="F56" s="106"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6">
       <c r="F57" s="105"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:6">
       <c r="F58" s="105"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:6">
       <c r="F59" s="106"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:6">
       <c r="F60" s="106"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:6">
       <c r="F61" s="105"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:6">
       <c r="F62" s="105"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:6">
       <c r="F63" s="105"/>
     </row>
   </sheetData>
@@ -7160,9 +7158,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="11"/>
       <c r="B2" s="86"/>
       <c r="C2" s="85"/>
@@ -7188,7 +7186,7 @@
       <c r="W2" s="69"/>
       <c r="X2" s="71"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="11"/>
       <c r="B3" s="86"/>
       <c r="C3" s="85"/>
@@ -7214,7 +7212,7 @@
       <c r="W3" s="68"/>
       <c r="X3" s="70"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="B4" s="86"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
@@ -7239,7 +7237,7 @@
       <c r="W4" s="69"/>
       <c r="X4" s="71"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="11"/>
       <c r="B5" s="86"/>
       <c r="C5" s="85"/>
@@ -7265,7 +7263,7 @@
       <c r="W5" s="68"/>
       <c r="X5" s="70"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="B6" s="86"/>
       <c r="C6" s="85"/>
       <c r="D6" s="85"/>
@@ -7290,7 +7288,7 @@
       <c r="W6" s="69"/>
       <c r="X6" s="71"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="B7" s="86"/>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
@@ -7315,7 +7313,7 @@
       <c r="W7" s="68"/>
       <c r="X7" s="70"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="B8" s="86"/>
       <c r="C8" s="85"/>
       <c r="D8" s="85"/>
@@ -7340,7 +7338,7 @@
       <c r="W8" s="69"/>
       <c r="X8" s="71"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="B9" s="86"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
@@ -7365,7 +7363,7 @@
       <c r="W9" s="68"/>
       <c r="X9" s="70"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="B10" s="86"/>
       <c r="C10" s="85"/>
       <c r="D10" s="85"/>
@@ -7390,7 +7388,7 @@
       <c r="W10" s="69"/>
       <c r="X10" s="71"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="B11" s="86"/>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
@@ -7415,7 +7413,7 @@
       <c r="W11" s="69"/>
       <c r="X11" s="71"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="B12" s="86"/>
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
@@ -7440,7 +7438,7 @@
       <c r="W12" s="69"/>
       <c r="X12" s="71"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="B13" s="86"/>
       <c r="C13" s="85"/>
       <c r="D13" s="85"/>
@@ -7465,7 +7463,7 @@
       <c r="W13" s="69"/>
       <c r="X13" s="71"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="B14" s="86"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
@@ -7490,7 +7488,7 @@
       <c r="W14" s="69"/>
       <c r="X14" s="71"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="B15" s="86"/>
       <c r="C15" s="85"/>
       <c r="D15" s="85"/>
@@ -7515,7 +7513,7 @@
       <c r="W15" s="68"/>
       <c r="X15" s="70"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="B16" s="86"/>
       <c r="C16" s="85"/>
       <c r="D16" s="85"/>
@@ -7540,7 +7538,7 @@
       <c r="W16" s="68"/>
       <c r="X16" s="70"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24">
       <c r="B17" s="86"/>
       <c r="C17" s="85"/>
       <c r="D17" s="85"/>
@@ -7565,7 +7563,7 @@
       <c r="W17" s="69"/>
       <c r="X17" s="71"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24">
       <c r="B18" s="86"/>
       <c r="C18" s="85"/>
       <c r="D18" s="85"/>
@@ -7590,7 +7588,7 @@
       <c r="W18" s="69"/>
       <c r="X18" s="71"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24">
       <c r="B19" s="86"/>
       <c r="C19" s="85"/>
       <c r="D19" s="85"/>
@@ -7615,7 +7613,7 @@
       <c r="W19" s="68"/>
       <c r="X19" s="70"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24">
       <c r="B20" s="86"/>
       <c r="C20" s="85"/>
       <c r="D20" s="85"/>
@@ -7640,7 +7638,7 @@
       <c r="W20" s="68"/>
       <c r="X20" s="70"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24">
       <c r="B21" s="86"/>
       <c r="C21" s="85"/>
       <c r="D21" s="85"/>
@@ -7665,7 +7663,7 @@
       <c r="W21" s="68"/>
       <c r="X21" s="70"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24">
       <c r="B22" s="79"/>
       <c r="C22" s="85"/>
       <c r="D22" s="85"/>
@@ -7690,7 +7688,7 @@
       <c r="W22" s="69"/>
       <c r="X22" s="71"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24">
       <c r="B23" s="79"/>
       <c r="C23" s="85"/>
       <c r="D23" s="85"/>
@@ -7715,7 +7713,7 @@
       <c r="W23" s="68"/>
       <c r="X23" s="70"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24">
       <c r="B24" s="79"/>
       <c r="C24" s="85"/>
       <c r="D24" s="85"/>
@@ -7740,7 +7738,7 @@
       <c r="W24" s="69"/>
       <c r="X24" s="71"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24">
       <c r="B25" s="78"/>
       <c r="C25" s="85"/>
       <c r="D25" s="85"/>
@@ -7765,7 +7763,7 @@
       <c r="W25" s="68"/>
       <c r="X25" s="70"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24">
       <c r="B26" s="79"/>
       <c r="C26" s="85"/>
       <c r="D26" s="85"/>
@@ -7790,7 +7788,7 @@
       <c r="W26" s="69"/>
       <c r="X26" s="71"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24">
       <c r="B27" s="78"/>
       <c r="C27" s="85"/>
       <c r="D27" s="85"/>
@@ -7815,7 +7813,7 @@
       <c r="W27" s="69"/>
       <c r="X27" s="71"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24">
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
       <c r="E28" s="76"/>
@@ -7839,7 +7837,7 @@
       <c r="W28" s="68"/>
       <c r="X28" s="70"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24">
       <c r="C29" s="85"/>
       <c r="D29" s="85"/>
       <c r="E29" s="77"/>
@@ -7863,7 +7861,7 @@
       <c r="W29" s="69"/>
       <c r="X29" s="71"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24">
       <c r="C30" s="85"/>
       <c r="D30" s="85"/>
       <c r="E30" s="76"/>
@@ -7887,7 +7885,7 @@
       <c r="W30" s="68"/>
       <c r="X30" s="70"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24">
       <c r="C31" s="85"/>
       <c r="D31" s="85"/>
       <c r="E31" s="77"/>
@@ -7911,7 +7909,7 @@
       <c r="W31" s="68"/>
       <c r="X31" s="70"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24">
       <c r="C32" s="85"/>
       <c r="D32" s="85"/>
       <c r="E32" s="76"/>
@@ -7935,7 +7933,7 @@
       <c r="W32" s="68"/>
       <c r="X32" s="70"/>
     </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:24">
       <c r="C33" s="85"/>
       <c r="D33" s="85"/>
       <c r="E33" s="76"/>
@@ -7959,7 +7957,7 @@
       <c r="W33" s="69"/>
       <c r="X33" s="71"/>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:24">
       <c r="C34" s="85"/>
       <c r="D34" s="85"/>
       <c r="E34" s="76"/>
@@ -7983,7 +7981,7 @@
       <c r="W34" s="68"/>
       <c r="X34" s="70"/>
     </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:24">
       <c r="C35" s="85"/>
       <c r="D35" s="85"/>
       <c r="E35" s="77"/>
@@ -8007,7 +8005,7 @@
       <c r="W35" s="68"/>
       <c r="X35" s="70"/>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:24">
       <c r="C36" s="85"/>
       <c r="D36" s="85"/>
       <c r="E36" s="77"/>
@@ -8031,7 +8029,7 @@
       <c r="W36" s="69"/>
       <c r="X36" s="71"/>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:24">
       <c r="C37" s="85"/>
       <c r="D37" s="85"/>
       <c r="E37" s="76"/>
@@ -8055,7 +8053,7 @@
       <c r="W37" s="69"/>
       <c r="X37" s="71"/>
     </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:24">
       <c r="C38" s="85"/>
       <c r="D38" s="85"/>
       <c r="E38" s="76"/>
@@ -8079,7 +8077,7 @@
       <c r="W38" s="69"/>
       <c r="X38" s="71"/>
     </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:24">
       <c r="C39" s="85"/>
       <c r="D39" s="85"/>
       <c r="E39" s="76"/>
@@ -8093,21 +8091,21 @@
       <c r="W39" s="69"/>
       <c r="X39" s="71"/>
     </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:24">
       <c r="C40" s="85"/>
       <c r="D40" s="85"/>
       <c r="E40" s="76"/>
     </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:24">
       <c r="C41" s="85"/>
       <c r="D41" s="85"/>
       <c r="E41" s="76"/>
     </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:24">
       <c r="D42" s="85"/>
       <c r="E42" s="76"/>
     </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:24">
       <c r="D43" s="85"/>
     </row>
   </sheetData>
@@ -8124,9 +8122,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="11"/>
       <c r="B2" s="94"/>
       <c r="C2" s="97"/>
@@ -8152,7 +8150,7 @@
       <c r="W2" s="68"/>
       <c r="X2" s="70"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="11"/>
       <c r="B3" s="86"/>
       <c r="C3" s="95"/>
@@ -8178,7 +8176,7 @@
       <c r="W3" s="69"/>
       <c r="X3" s="71"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="B4" s="86"/>
       <c r="C4" s="95"/>
       <c r="D4" s="98"/>
@@ -8203,7 +8201,7 @@
       <c r="W4" s="69"/>
       <c r="X4" s="71"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="11"/>
       <c r="B5" s="86"/>
       <c r="C5" s="95"/>
@@ -8229,7 +8227,7 @@
       <c r="W5" s="68"/>
       <c r="X5" s="70"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="B6" s="87"/>
       <c r="C6" s="95"/>
       <c r="D6" s="98"/>
@@ -8254,7 +8252,7 @@
       <c r="W6" s="69"/>
       <c r="X6" s="71"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="B7" s="94"/>
       <c r="C7" s="97"/>
       <c r="D7" s="98"/>
@@ -8279,7 +8277,7 @@
       <c r="W7" s="68"/>
       <c r="X7" s="70"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="B8" s="90"/>
       <c r="C8" s="95"/>
       <c r="D8" s="98"/>
@@ -8304,7 +8302,7 @@
       <c r="W8" s="69"/>
       <c r="X8" s="71"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="B9" s="94"/>
       <c r="C9" s="97"/>
       <c r="D9" s="99"/>
@@ -8329,7 +8327,7 @@
       <c r="W9" s="68"/>
       <c r="X9" s="70"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="B10" s="86"/>
       <c r="C10" s="95"/>
       <c r="D10" s="98"/>
@@ -8354,7 +8352,7 @@
       <c r="W10" s="69"/>
       <c r="X10" s="71"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="B11" s="94"/>
       <c r="C11" s="95"/>
       <c r="D11" s="98"/>
@@ -8379,7 +8377,7 @@
       <c r="W11" s="69"/>
       <c r="X11" s="71"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="B12" s="86"/>
       <c r="C12" s="95"/>
       <c r="D12" s="98"/>
@@ -8404,7 +8402,7 @@
       <c r="W12" s="69"/>
       <c r="X12" s="71"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="B13" s="94"/>
       <c r="C13" s="97"/>
       <c r="D13" s="99"/>
@@ -8429,7 +8427,7 @@
       <c r="W13" s="69"/>
       <c r="X13" s="71"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="B14" s="86"/>
       <c r="C14" s="95"/>
       <c r="D14" s="98"/>
@@ -8454,7 +8452,7 @@
       <c r="W14" s="69"/>
       <c r="X14" s="71"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="B15" s="90"/>
       <c r="C15" s="97"/>
       <c r="D15" s="99"/>
@@ -8479,7 +8477,7 @@
       <c r="W15" s="68"/>
       <c r="X15" s="70"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="B16" s="86"/>
       <c r="C16" s="95"/>
       <c r="D16" s="98"/>
@@ -8504,7 +8502,7 @@
       <c r="W16" s="68"/>
       <c r="X16" s="70"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24">
       <c r="B17" s="87"/>
       <c r="C17" s="95"/>
       <c r="D17" s="98"/>
@@ -8529,7 +8527,7 @@
       <c r="W17" s="69"/>
       <c r="X17" s="71"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24">
       <c r="B18" s="86"/>
       <c r="C18" s="95"/>
       <c r="D18" s="98"/>
@@ -8554,7 +8552,7 @@
       <c r="W18" s="69"/>
       <c r="X18" s="71"/>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24">
       <c r="B19" s="86"/>
       <c r="C19" s="97"/>
       <c r="D19" s="99"/>
@@ -8579,7 +8577,7 @@
       <c r="W19" s="68"/>
       <c r="X19" s="70"/>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24">
       <c r="B20" s="86"/>
       <c r="C20" s="95"/>
       <c r="D20" s="98"/>
@@ -8604,7 +8602,7 @@
       <c r="W20" s="68"/>
       <c r="X20" s="70"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24">
       <c r="B21" s="90"/>
       <c r="C21" s="97"/>
       <c r="D21" s="99"/>
@@ -8629,7 +8627,7 @@
       <c r="W21" s="68"/>
       <c r="X21" s="70"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24">
       <c r="B22" s="79"/>
       <c r="C22" s="95"/>
       <c r="D22" s="98"/>
@@ -8654,7 +8652,7 @@
       <c r="W22" s="69"/>
       <c r="X22" s="71"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24">
       <c r="B23" s="79"/>
       <c r="C23" s="95"/>
       <c r="D23" s="98"/>
@@ -8679,7 +8677,7 @@
       <c r="W23" s="68"/>
       <c r="X23" s="70"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24">
       <c r="B24" s="79"/>
       <c r="C24" s="95"/>
       <c r="D24" s="98"/>
@@ -8704,7 +8702,7 @@
       <c r="W24" s="69"/>
       <c r="X24" s="71"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24">
       <c r="B25" s="78"/>
       <c r="C25" s="95"/>
       <c r="D25" s="98"/>
@@ -8729,7 +8727,7 @@
       <c r="W25" s="68"/>
       <c r="X25" s="70"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24">
       <c r="B26" s="79"/>
       <c r="C26" s="95"/>
       <c r="D26" s="98"/>
@@ -8754,7 +8752,7 @@
       <c r="W26" s="69"/>
       <c r="X26" s="71"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24">
       <c r="B27" s="78"/>
       <c r="C27" s="95"/>
       <c r="D27" s="98"/>
@@ -8779,7 +8777,7 @@
       <c r="W27" s="69"/>
       <c r="X27" s="71"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24">
       <c r="C28" s="95"/>
       <c r="D28" s="98"/>
       <c r="E28" s="101"/>
@@ -8803,7 +8801,7 @@
       <c r="W28" s="68"/>
       <c r="X28" s="70"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24">
       <c r="C29" s="97"/>
       <c r="D29" s="98"/>
       <c r="E29" s="101"/>
@@ -8827,7 +8825,7 @@
       <c r="W29" s="69"/>
       <c r="X29" s="71"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24">
       <c r="C30" s="97"/>
       <c r="D30" s="99"/>
       <c r="E30" s="103"/>
@@ -8851,7 +8849,7 @@
       <c r="W30" s="68"/>
       <c r="X30" s="71"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24">
       <c r="C31" s="95"/>
       <c r="D31" s="98"/>
       <c r="E31" s="101"/>
@@ -8875,7 +8873,7 @@
       <c r="W31" s="69"/>
       <c r="X31" s="71"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24">
       <c r="C32" s="95"/>
       <c r="D32" s="98"/>
       <c r="E32" s="101"/>
@@ -8899,7 +8897,7 @@
       <c r="W32" s="68"/>
       <c r="X32" s="70"/>
     </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:24">
       <c r="C33" s="95"/>
       <c r="D33" s="98"/>
       <c r="E33" s="101"/>
@@ -8923,7 +8921,7 @@
       <c r="W33" s="69"/>
       <c r="X33" s="71"/>
     </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:24">
       <c r="C34" s="95"/>
       <c r="D34" s="98"/>
       <c r="E34" s="101"/>
@@ -8947,7 +8945,7 @@
       <c r="W34" s="68"/>
       <c r="X34" s="70"/>
     </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:24">
       <c r="C35" s="85"/>
       <c r="D35" s="99"/>
       <c r="E35" s="103"/>
@@ -8971,7 +8969,7 @@
       <c r="W35" s="68"/>
       <c r="X35" s="70"/>
     </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:24">
       <c r="C36" s="85"/>
       <c r="D36" s="98"/>
       <c r="E36" s="101"/>
@@ -8995,7 +8993,7 @@
       <c r="W36" s="69"/>
       <c r="X36" s="71"/>
     </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:24">
       <c r="C37" s="85"/>
       <c r="D37" s="98"/>
       <c r="E37" s="101"/>
@@ -9019,7 +9017,7 @@
       <c r="W37" s="69"/>
       <c r="X37" s="71"/>
     </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:24">
       <c r="C38" s="85"/>
       <c r="D38" s="98"/>
       <c r="E38" s="101"/>
@@ -9043,7 +9041,7 @@
       <c r="W38" s="69"/>
       <c r="X38" s="71"/>
     </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:24">
       <c r="C39" s="84"/>
       <c r="D39" s="98"/>
       <c r="E39" s="101"/>
@@ -9058,93 +9056,93 @@
       <c r="W39" s="69"/>
       <c r="X39" s="71"/>
     </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:24">
       <c r="C40" s="85"/>
       <c r="D40" s="98"/>
       <c r="E40" s="101"/>
       <c r="F40" s="104"/>
     </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:24">
       <c r="C41" s="85"/>
       <c r="D41" s="98"/>
       <c r="E41" s="101"/>
       <c r="F41" s="104"/>
     </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:24">
       <c r="D42" s="98"/>
       <c r="E42" s="101"/>
       <c r="F42" s="104"/>
     </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:24">
       <c r="D43" s="98"/>
       <c r="E43" s="101"/>
       <c r="F43" s="104"/>
     </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:24">
       <c r="D44" s="98"/>
       <c r="E44" s="101"/>
       <c r="F44" s="104"/>
     </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:24">
       <c r="D45" s="98"/>
       <c r="E45" s="101"/>
       <c r="F45" s="104"/>
     </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:24">
       <c r="E46" s="103"/>
       <c r="F46" s="104"/>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:24">
       <c r="E47" s="103"/>
       <c r="F47" s="105"/>
     </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:24">
       <c r="E48" s="101"/>
       <c r="F48" s="104"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6">
       <c r="F49" s="104"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6">
       <c r="F50" s="104"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6">
       <c r="F51" s="104"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6">
       <c r="F52" s="105"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6">
       <c r="F53" s="104"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:6">
       <c r="F54" s="104"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6">
       <c r="F55" s="105"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:6">
       <c r="F56" s="104"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6">
       <c r="F57" s="104"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:6">
       <c r="F58" s="104"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:6">
       <c r="F59" s="104"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:6">
       <c r="F60" s="104"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:6">
       <c r="F61" s="104"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:6">
       <c r="F62" s="104"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:6">
       <c r="F63" s="104"/>
     </row>
   </sheetData>
@@ -9160,7 +9158,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -9182,7 +9180,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9196,7 +9194,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9210,7 +9208,7 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
